--- a/data/trans_orig/P36B09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B09-Provincia-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4846</v>
+        <v>5329</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003534670053694203</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01774999152591803</v>
+        <v>0.01951878888259467</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6290</v>
+        <v>7379</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008022135266705911</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02411294672163219</v>
+        <v>0.02828984102811893</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -785,19 +785,19 @@
         <v>3057</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>962</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8227</v>
+        <v>8209</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005727245078859959</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0</v>
+        <v>0.001802541331540748</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01541163092021491</v>
+        <v>0.0153779107496893</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>13934</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8006</v>
+        <v>7307</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23442</v>
+        <v>23087</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05103915502871132</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02932675400085921</v>
+        <v>0.02676302564144999</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08586573086027507</v>
+        <v>0.08456364437634997</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -835,19 +835,19 @@
         <v>20338</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13164</v>
+        <v>12861</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30343</v>
+        <v>30344</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07797355575566553</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05046744704845125</v>
+        <v>0.0493071307229716</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1163283038783937</v>
+        <v>0.1163344458737379</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -856,19 +856,19 @@
         <v>34273</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23415</v>
+        <v>23619</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>47253</v>
+        <v>47385</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06419930035540716</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04386125709839461</v>
+        <v>0.0442435246599882</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08851329842502625</v>
+        <v>0.08876198427876147</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>92645</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>76436</v>
+        <v>77580</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>107937</v>
+        <v>109368</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.339345175507834</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2799746415957025</v>
+        <v>0.2841656522492891</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3953589020335715</v>
+        <v>0.4006003439408872</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>104</v>
@@ -906,19 +906,19 @@
         <v>110600</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>93061</v>
+        <v>94573</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>126619</v>
+        <v>128331</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4240187084087197</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3567775361007119</v>
+        <v>0.3625744547596436</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4854327156033263</v>
+        <v>0.4919965098976741</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>195</v>
@@ -927,19 +927,19 @@
         <v>203245</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>180109</v>
+        <v>179652</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>228384</v>
+        <v>227194</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3807166546655374</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3373783453421779</v>
+        <v>0.3365228985906498</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4278069541393952</v>
+        <v>0.4255777115692325</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>140078</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>124758</v>
+        <v>122699</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>156683</v>
+        <v>156417</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5130856026592597</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4569705615487067</v>
+        <v>0.4494298631896397</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5739095922249718</v>
+        <v>0.5729363348465443</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>108</v>
@@ -977,19 +977,19 @@
         <v>114602</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>98927</v>
+        <v>99184</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>131525</v>
+        <v>131115</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4393589527312174</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3792658288880542</v>
+        <v>0.3802510130541525</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5042414743297955</v>
+        <v>0.5026676742420373</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>248</v>
@@ -998,19 +998,19 @@
         <v>254679</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>230712</v>
+        <v>231243</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>278528</v>
+        <v>277285</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4770627693562525</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4321687776631596</v>
+        <v>0.4331632569030723</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5217359013018742</v>
+        <v>0.5194086504904832</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>25389</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16958</v>
+        <v>17571</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>36390</v>
+        <v>36849</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09299539675050078</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06211560052551365</v>
+        <v>0.06435862107678832</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1332913659320717</v>
+        <v>0.1349731060408685</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -1048,19 +1048,19 @@
         <v>13205</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6338</v>
+        <v>6728</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21244</v>
+        <v>22085</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05062664783769148</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02429744805501353</v>
+        <v>0.02579376440585002</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08144343304544203</v>
+        <v>0.08467123640008445</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>38</v>
@@ -1069,19 +1069,19 @@
         <v>38594</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>27455</v>
+        <v>28089</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>52094</v>
+        <v>51248</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07229403054394294</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05142778313187904</v>
+        <v>0.05261666152326108</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09758229225887481</v>
+        <v>0.09599824131377456</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>5782</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2082</v>
+        <v>1916</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14417</v>
+        <v>14108</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01172599591320673</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004222107742997178</v>
+        <v>0.003885428941166962</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02923874855191783</v>
+        <v>0.02861236508428944</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1197,16 +1197,16 @@
         <v>4898</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17292</v>
+        <v>17783</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01950286526237544</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009718445663694309</v>
+        <v>0.009719320840935308</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.034312951551966</v>
+        <v>0.03528677931311913</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -1215,19 +1215,19 @@
         <v>15610</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8930</v>
+        <v>8638</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25560</v>
+        <v>25198</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01565683943494804</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008957006992412428</v>
+        <v>0.008663985917822279</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02563641182316318</v>
+        <v>0.02527301070626739</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>33938</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24192</v>
+        <v>24315</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>47426</v>
+        <v>45867</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06882937614446027</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04906394300268819</v>
+        <v>0.04931344176233111</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09618371366001974</v>
+        <v>0.09302219913609039</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>40</v>
@@ -1265,19 +1265,19 @@
         <v>40949</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30084</v>
+        <v>30555</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>53941</v>
+        <v>54827</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08125647349634763</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05969711614962334</v>
+        <v>0.06063126517864584</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1070366057208047</v>
+        <v>0.108794112079851</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>74</v>
@@ -1286,19 +1286,19 @@
         <v>74887</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>59822</v>
+        <v>60960</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>93473</v>
+        <v>93221</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0751106923047911</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06000074760655155</v>
+        <v>0.06114220406439541</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09375172597169142</v>
+        <v>0.09349906596211927</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>317330</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>294777</v>
+        <v>294708</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>338478</v>
+        <v>336807</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6435737243346099</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5978345540058667</v>
+        <v>0.5976949880808268</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6864631434258006</v>
+        <v>0.683075415500202</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>324</v>
@@ -1336,19 +1336,19 @@
         <v>323414</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>303818</v>
+        <v>300831</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>343687</v>
+        <v>345028</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6417602902617189</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6028749327433375</v>
+        <v>0.5969473390899421</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6819874534164656</v>
+        <v>0.6846488387897216</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>628</v>
@@ -1357,19 +1357,19 @@
         <v>640745</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>609811</v>
+        <v>609304</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>671436</v>
+        <v>669764</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6426571182740631</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6116316027563846</v>
+        <v>0.6111224293291905</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.673439748688923</v>
+        <v>0.6717635965581358</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>126031</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>105428</v>
+        <v>108235</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>148283</v>
+        <v>147960</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2556015731771275</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2138179350066241</v>
+        <v>0.2195100175420788</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3007320123108477</v>
+        <v>0.3000768421307129</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>117</v>
@@ -1407,19 +1407,19 @@
         <v>120862</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>102404</v>
+        <v>102674</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>140099</v>
+        <v>140063</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2398298868843818</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2032033478767422</v>
+        <v>0.2037395434705174</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2780029437318699</v>
+        <v>0.2779313686645707</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>230</v>
@@ -1428,19 +1428,19 @@
         <v>246893</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>217046</v>
+        <v>221203</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>275572</v>
+        <v>276022</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2476297238239681</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2176938704416046</v>
+        <v>0.2218630599134439</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2763944991325775</v>
+        <v>0.2768463162817305</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>9994</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4947</v>
+        <v>4750</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18869</v>
+        <v>18860</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02026933043059564</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01003378907302099</v>
+        <v>0.009633717651211633</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03826757275860239</v>
+        <v>0.0382493837618168</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1478,19 +1478,19 @@
         <v>8895</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4478</v>
+        <v>3973</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16844</v>
+        <v>18147</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01765048409517617</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008886336563514608</v>
+        <v>0.00788277323610157</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03342386374973254</v>
+        <v>0.03600963726957075</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -1499,19 +1499,19 @@
         <v>18889</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11062</v>
+        <v>11549</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>30006</v>
+        <v>29338</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01894562616222961</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01109519321585383</v>
+        <v>0.01158313361574469</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0300958280282954</v>
+        <v>0.02942602257692081</v>
       </c>
     </row>
     <row r="15">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8273</v>
+        <v>6760</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005231026826702137</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02594812037414827</v>
+        <v>0.02120181755691259</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1624,19 +1624,19 @@
         <v>2881</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7555</v>
+        <v>7839</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008588572818201887</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002625407557786091</v>
+        <v>0.002620585088313625</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02252315900247545</v>
+        <v>0.02337129495146625</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1645,19 +1645,19 @@
         <v>4549</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11475</v>
+        <v>11314</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006952307073259343</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001533499833990951</v>
+        <v>0.001530269703644794</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01753861053238371</v>
+        <v>0.01729321723553671</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>7870</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3738</v>
+        <v>3787</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14601</v>
+        <v>15237</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02468294079432431</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01172275290580707</v>
+        <v>0.01187751674824104</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04579380943982144</v>
+        <v>0.04778778368003759</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4662</v>
+        <v>4871</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.002760411406031054</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.013899525988067</v>
+        <v>0.01452131085078407</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -1716,19 +1716,19 @@
         <v>8796</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4024</v>
+        <v>4565</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15772</v>
+        <v>16037</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01344413218643876</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006150226790646109</v>
+        <v>0.006977280800444065</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02410694735116822</v>
+        <v>0.02451229193268113</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>92053</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>75868</v>
+        <v>77318</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>108305</v>
+        <v>110140</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2887052924940492</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.237946124370535</v>
+        <v>0.242493214522861</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3396774855277551</v>
+        <v>0.3454317577194378</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>119</v>
@@ -1766,19 +1766,19 @@
         <v>118695</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>101916</v>
+        <v>101007</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>136891</v>
+        <v>134975</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3538789401583971</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3038538849183963</v>
+        <v>0.3011439181046393</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4081269516896237</v>
+        <v>0.4024169570850587</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>205</v>
@@ -1787,19 +1787,19 @@
         <v>210748</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>187326</v>
+        <v>188891</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>236792</v>
+        <v>236530</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3221172286535928</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2863189055570252</v>
+        <v>0.2887101488566832</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3619247498703841</v>
+        <v>0.3615241734905679</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>189099</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>171493</v>
+        <v>169619</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>205883</v>
+        <v>205136</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5930720663375304</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5378555713152722</v>
+        <v>0.5319792737940503</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6457143016268451</v>
+        <v>0.6433698503880841</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>202</v>
@@ -1837,19 +1837,19 @@
         <v>203332</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>186750</v>
+        <v>186628</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>222790</v>
+        <v>222337</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.606215467128755</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5567790293976145</v>
+        <v>0.5564155517421044</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6642286751812396</v>
+        <v>0.6628769806182618</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>389</v>
@@ -1858,19 +1858,19 @@
         <v>392431</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>365694</v>
+        <v>365424</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>418148</v>
+        <v>417041</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5998101650000043</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5589443889534872</v>
+        <v>0.5585321192872217</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6391180498225674</v>
+        <v>0.6374266532398086</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>28157</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>19464</v>
+        <v>19641</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39961</v>
+        <v>39700</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08830867354739401</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06104508805562171</v>
+        <v>0.06159930324613922</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1253307259557435</v>
+        <v>0.1245104617650939</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -1908,19 +1908,19 @@
         <v>9578</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4808</v>
+        <v>4898</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16511</v>
+        <v>17375</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.028556608488615</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01433574420671964</v>
+        <v>0.01460315436975827</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04922656257318873</v>
+        <v>0.05180282388965309</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>38</v>
@@ -1929,19 +1929,19 @@
         <v>37735</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>27807</v>
+        <v>27614</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>50844</v>
+        <v>50699</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05767616708670478</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04250100599134794</v>
+        <v>0.04220698850788799</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07771194061883395</v>
+        <v>0.077490848388789</v>
       </c>
     </row>
     <row r="21">
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9742</v>
+        <v>9152</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006766254518101867</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02723409999792369</v>
+        <v>0.02558346191562278</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2054,19 +2054,19 @@
         <v>8043</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3309</v>
+        <v>3267</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15772</v>
+        <v>15322</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02165270196546494</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008908918567604158</v>
+        <v>0.008794374809115777</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04245928640765311</v>
+        <v>0.04124941905423399</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -2075,19 +2075,19 @@
         <v>10464</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4761</v>
+        <v>4774</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19939</v>
+        <v>19039</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01434958510535599</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006528531418864249</v>
+        <v>0.006546747662792107</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02734377616042186</v>
+        <v>0.02610987977169922</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>11608</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6124</v>
+        <v>6300</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18789</v>
+        <v>19264</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03245008110516782</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01711843316856128</v>
+        <v>0.01761017017582249</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05252297194270268</v>
+        <v>0.05384989018722362</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>15</v>
@@ -2125,19 +2125,19 @@
         <v>15129</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8497</v>
+        <v>8671</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>24391</v>
+        <v>23521</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04072875661418956</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02287591639310858</v>
+        <v>0.02334445373590749</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06566205270435733</v>
+        <v>0.06332143366408055</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>28</v>
@@ -2146,19 +2146,19 @@
         <v>26737</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>17854</v>
+        <v>18498</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>37112</v>
+        <v>38290</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03666733531786695</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02448508043786788</v>
+        <v>0.02536802179957686</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05089459068187893</v>
+        <v>0.05251123444189524</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>110007</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>92086</v>
+        <v>94151</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>127115</v>
+        <v>128527</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.307514116436851</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.257416969685459</v>
+        <v>0.2631893516311084</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3553367038015655</v>
+        <v>0.3592840594701837</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>119</v>
@@ -2196,19 +2196,19 @@
         <v>115620</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>98963</v>
+        <v>99476</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>132244</v>
+        <v>133956</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3112627321164181</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2664185101792448</v>
+        <v>0.2677991884360401</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3560140577797524</v>
+        <v>0.3606240663759467</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>227</v>
@@ -2217,19 +2217,19 @@
         <v>225627</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>201141</v>
+        <v>202323</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>251841</v>
+        <v>251738</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3094237051445152</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2758437430911843</v>
+        <v>0.277464096089892</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3453733981152621</v>
+        <v>0.3452308602544221</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>175872</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>158065</v>
+        <v>156972</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>194367</v>
+        <v>194357</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4916343707130483</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4418557450113691</v>
+        <v>0.4388002660624784</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.543334010251639</v>
+        <v>0.5433071504248762</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>225</v>
@@ -2267,19 +2267,19 @@
         <v>215484</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>197865</v>
+        <v>195725</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>232490</v>
+        <v>232789</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5801060211329244</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5326743321292847</v>
+        <v>0.5269143326408832</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6258883585073514</v>
+        <v>0.6266934858979262</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>406</v>
@@ -2288,19 +2288,19 @@
         <v>391356</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>364762</v>
+        <v>365055</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>417700</v>
+        <v>417418</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5367028650671356</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5002314937549772</v>
+        <v>0.5006329330502889</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5728302601631247</v>
+        <v>0.5724432582485109</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>57822</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>45042</v>
+        <v>44832</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>73167</v>
+        <v>73280</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.161635177226831</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1259092333213806</v>
+        <v>0.1253235216300747</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2045309114759777</v>
+        <v>0.2048462457598975</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -2338,19 +2338,19 @@
         <v>17180</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9724</v>
+        <v>10731</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25410</v>
+        <v>27833</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04624978817100294</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02617747716529348</v>
+        <v>0.02888832507025387</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06840662018349541</v>
+        <v>0.07492850003759691</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>75</v>
@@ -2359,19 +2359,19 @@
         <v>75002</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>59852</v>
+        <v>59582</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>92472</v>
+        <v>91657</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1028565093651262</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08208051512591728</v>
+        <v>0.08171067192914021</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1268153595421949</v>
+        <v>0.1256982345713185</v>
       </c>
     </row>
     <row r="27">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8840</v>
+        <v>8689</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01230019796807768</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04366355631197531</v>
+        <v>0.04291763019861209</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7149</v>
+        <v>6134</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.009767552433325073</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03459330466120567</v>
+        <v>0.029678871616729</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -2505,19 +2505,19 @@
         <v>4509</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>975</v>
+        <v>1019</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>11039</v>
+        <v>11651</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01102082782049221</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002383525438139686</v>
+        <v>0.002490717646943336</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02698281202987988</v>
+        <v>0.02847911873853721</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>19939</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11823</v>
+        <v>12550</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>29738</v>
+        <v>30511</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09848853154571313</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05839928958249439</v>
+        <v>0.06198851526521023</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1468883892663714</v>
+        <v>0.1507075766548591</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>24</v>
@@ -2555,19 +2555,19 @@
         <v>26480</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16985</v>
+        <v>17753</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>37888</v>
+        <v>37780</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1281256794251139</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08218294889721188</v>
+        <v>0.08589873208741992</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1833248448827521</v>
+        <v>0.1828051422517698</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>43</v>
@@ -2576,19 +2576,19 @@
         <v>46419</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>33580</v>
+        <v>33023</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>60604</v>
+        <v>59022</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1134597865974728</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08207866669344591</v>
+        <v>0.08071558149691077</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1481307678087474</v>
+        <v>0.144265301727791</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>97150</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>83867</v>
+        <v>83602</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>112466</v>
+        <v>111077</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4798620353065829</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4142538168604461</v>
+        <v>0.412941679163874</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5555128373361993</v>
+        <v>0.5486536377489177</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>123</v>
@@ -2626,19 +2626,19 @@
         <v>127599</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>112175</v>
+        <v>112255</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>140943</v>
+        <v>142857</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6174056054773478</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5427759936984597</v>
+        <v>0.5431618527795219</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.681976109059133</v>
+        <v>0.6912354673273535</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>225</v>
@@ -2647,19 +2647,19 @@
         <v>224749</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>204230</v>
+        <v>205197</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>245819</v>
+        <v>246215</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5493424008982856</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4991892644367281</v>
+        <v>0.5015526235246441</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6008448506506959</v>
+        <v>0.6018105915751908</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>51916</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>40130</v>
+        <v>40135</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>62900</v>
+        <v>64172</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2564311962494898</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1982188012382919</v>
+        <v>0.1982450129550029</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3106867235738563</v>
+        <v>0.3169730050229127</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>39</v>
@@ -2697,19 +2697,19 @@
         <v>41540</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>30488</v>
+        <v>29746</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>54927</v>
+        <v>53718</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2009996114148137</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.147521499264236</v>
+        <v>0.1439319044471188</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2657751606238706</v>
+        <v>0.2599213170630553</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>92</v>
@@ -2718,19 +2718,19 @@
         <v>93456</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>77861</v>
+        <v>76473</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>111940</v>
+        <v>110644</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2284298380263528</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1903130758397654</v>
+        <v>0.1869205025726864</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2736086034838395</v>
+        <v>0.2704421727058282</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>30959</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>21742</v>
+        <v>21508</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>43579</v>
+        <v>43460</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1529180389301364</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1073941757469067</v>
+        <v>0.1062350909453139</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2152515441791749</v>
+        <v>0.2146652076501496</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>9</v>
@@ -2768,19 +2768,19 @@
         <v>9032</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4089</v>
+        <v>4033</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>16634</v>
+        <v>16902</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04370155124939946</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01978738434570281</v>
+        <v>0.0195130122144226</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08048603798155483</v>
+        <v>0.0817851632228061</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>38</v>
@@ -2789,19 +2789,19 @@
         <v>39991</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>29990</v>
+        <v>29244</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>56856</v>
+        <v>55757</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09774714665739667</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.073304038553268</v>
+        <v>0.07147997605520251</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1389712134593267</v>
+        <v>0.1362851158633968</v>
       </c>
     </row>
     <row r="33">
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>7794</v>
+        <v>7190</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.007108854177815794</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02801988163540035</v>
+        <v>0.02585043924714627</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5969</v>
+        <v>6945</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.003608383583338316</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0108923070050538</v>
+        <v>0.01267481062080664</v>
       </c>
     </row>
     <row r="35">
@@ -2956,19 +2956,19 @@
         <v>5979</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2092</v>
+        <v>2074</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>12865</v>
+        <v>12213</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02215823051186296</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.007752356890488657</v>
+        <v>0.00768740266082585</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0476773452941771</v>
+        <v>0.04526366255907536</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -2977,19 +2977,19 @@
         <v>4280</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>10793</v>
+        <v>12163</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01538778908546542</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.003709969190961495</v>
+        <v>0.003706103374707839</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03880342668102807</v>
+        <v>0.043729867425351</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>10</v>
@@ -2998,19 +2998,19 @@
         <v>10259</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5034</v>
+        <v>5210</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>17656</v>
+        <v>18107</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01872162187088042</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.009185837570904888</v>
+        <v>0.009508412409591311</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03222001478952286</v>
+        <v>0.0330436048076284</v>
       </c>
     </row>
     <row r="36">
@@ -3027,19 +3027,19 @@
         <v>95110</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>79812</v>
+        <v>80206</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>109491</v>
+        <v>111180</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3524852314298191</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2957896435277184</v>
+        <v>0.2972498156845212</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4057819268824238</v>
+        <v>0.4120429149952774</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>94</v>
@@ -3048,19 +3048,19 @@
         <v>96887</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>81636</v>
+        <v>81931</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>114120</v>
+        <v>112307</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3483329016969494</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2935018694516772</v>
+        <v>0.2945638490691376</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4102907862087418</v>
+        <v>0.4037725119132551</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>190</v>
@@ -3069,19 +3069,19 @@
         <v>191996</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>173216</v>
+        <v>168182</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>218169</v>
+        <v>213783</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3503775502106077</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3161044163327476</v>
+        <v>0.3069190283868465</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3981409410834649</v>
+        <v>0.3901363739450384</v>
       </c>
     </row>
     <row r="37">
@@ -3098,19 +3098,19 @@
         <v>145658</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>130237</v>
+        <v>129627</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>161911</v>
+        <v>161411</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5398236642591413</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4826685654840214</v>
+        <v>0.4804095590997842</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6000566925318257</v>
+        <v>0.5982045917474783</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>163</v>
@@ -3119,19 +3119,19 @@
         <v>167618</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>149676</v>
+        <v>151776</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>183205</v>
+        <v>183235</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.6026318961445066</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5381224852278992</v>
+        <v>0.5456740604959156</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6586703024064928</v>
+        <v>0.6587787524061467</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>305</v>
@@ -3140,19 +3140,19 @@
         <v>313277</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>286737</v>
+        <v>288733</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>333743</v>
+        <v>336396</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.5717044972548313</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5232719760070355</v>
+        <v>0.5269131735936816</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6090536697085613</v>
+        <v>0.6138948138122178</v>
       </c>
     </row>
     <row r="38">
@@ -3169,19 +3169,19 @@
         <v>23079</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>14688</v>
+        <v>14070</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>33758</v>
+        <v>33625</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.08553287379917662</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.05443557229039577</v>
+        <v>0.05214415401872655</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1251117586745885</v>
+        <v>0.1246179866876438</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>7</v>
@@ -3190,19 +3190,19 @@
         <v>7382</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3039</v>
+        <v>3223</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>14140</v>
+        <v>15364</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02653855889526274</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01092633794741513</v>
+        <v>0.01158590365603789</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.05083730585424084</v>
+        <v>0.0552388740050615</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>28</v>
@@ -3211,19 +3211,19 @@
         <v>30461</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>20363</v>
+        <v>21173</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>43457</v>
+        <v>42370</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.0555879470803422</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0371614196132999</v>
+        <v>0.03863845691440037</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.07930593639460974</v>
+        <v>0.07732229766693889</v>
       </c>
     </row>
     <row r="39">
@@ -3315,19 +3315,19 @@
         <v>4474</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1672</v>
+        <v>1687</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>9159</v>
+        <v>9716</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.007275012596925055</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.002719331206335659</v>
+        <v>0.002742534394899534</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01489160033627102</v>
+        <v>0.01579817768134135</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>10</v>
@@ -3336,19 +3336,19 @@
         <v>9280</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>4148</v>
+        <v>4544</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>17137</v>
+        <v>16965</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01454014306550169</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.006499145031906741</v>
+        <v>0.00711979472649526</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02685197562112678</v>
+        <v>0.02658235624329581</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>15</v>
@@ -3357,19 +3357,19 @@
         <v>13754</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>8320</v>
+        <v>7748</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>22725</v>
+        <v>22629</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0109748005274948</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.006638501200134167</v>
+        <v>0.006182680759056266</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01813279198541274</v>
+        <v>0.01805601016788711</v>
       </c>
     </row>
     <row r="41">
@@ -3386,19 +3386,19 @@
         <v>11754</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>6307</v>
+        <v>6522</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>20130</v>
+        <v>20202</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01911154705285592</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0102554330270635</v>
+        <v>0.01060515348228574</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.0327304442869028</v>
+        <v>0.03284702986812625</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>13</v>
@@ -3407,19 +3407,19 @@
         <v>12853</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>7424</v>
+        <v>6996</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>21928</v>
+        <v>21680</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02013954149895376</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0116316737890614</v>
+        <v>0.01096117317372256</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03435759636527524</v>
+        <v>0.03396903927848388</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>25</v>
@@ -3428,19 +3428,19 @@
         <v>24608</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>15730</v>
+        <v>16407</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>35056</v>
+        <v>35391</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01963505608835307</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01255165422279613</v>
+        <v>0.01309149616211688</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02797192512253882</v>
+        <v>0.02823923224774684</v>
       </c>
     </row>
     <row r="42">
@@ -3457,19 +3457,19 @@
         <v>155590</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>134704</v>
+        <v>134855</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>177646</v>
+        <v>177982</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2529804059686319</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2190207667363566</v>
+        <v>0.2192663985961992</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2888433444668596</v>
+        <v>0.2893887927159631</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>214</v>
@@ -3478,19 +3478,19 @@
         <v>223475</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>199140</v>
+        <v>199465</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>248136</v>
+        <v>249199</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3501536684429604</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3120242152279011</v>
+        <v>0.312534365772413</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.388794490400283</v>
+        <v>0.3904600667009953</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>366</v>
@@ -3499,19 +3499,19 @@
         <v>379065</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>347236</v>
+        <v>348104</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>412155</v>
+        <v>412248</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3024661605922572</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2770693558192509</v>
+        <v>0.2777617265223711</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3288697042128383</v>
+        <v>0.328943866880803</v>
       </c>
     </row>
     <row r="43">
@@ -3528,19 +3528,19 @@
         <v>384530</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>361171</v>
+        <v>360585</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>410732</v>
+        <v>409913</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.6252240482538048</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.5872433445853904</v>
+        <v>0.5862921083781047</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.6678277701855255</v>
+        <v>0.6664953481961396</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>362</v>
@@ -3549,19 +3549,19 @@
         <v>368194</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>343476</v>
+        <v>342456</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>394109</v>
+        <v>393977</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.5769086656622464</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.5381785130676108</v>
+        <v>0.5365804719349998</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.6175132933656664</v>
+        <v>0.6173066936998222</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>732</v>
@@ -3570,19 +3570,19 @@
         <v>752724</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>720815</v>
+        <v>718592</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>788814</v>
+        <v>787274</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.6006193050704207</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.5751587760306414</v>
+        <v>0.5733844710271344</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.6294165584366551</v>
+        <v>0.6281880392920673</v>
       </c>
     </row>
     <row r="44">
@@ -3599,19 +3599,19 @@
         <v>58679</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>45923</v>
+        <v>45781</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>73798</v>
+        <v>74610</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.09540898612778222</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0746686682175822</v>
+        <v>0.07443800646744726</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1199915301832086</v>
+        <v>0.1213114620760365</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>22</v>
@@ -3620,19 +3620,19 @@
         <v>24417</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>15572</v>
+        <v>15768</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>35121</v>
+        <v>36256</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.03825798133033777</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.0243996348890341</v>
+        <v>0.02470584366055634</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.05502924291182146</v>
+        <v>0.05680805560918645</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>81</v>
@@ -3641,19 +3641,19 @@
         <v>83096</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>67046</v>
+        <v>67280</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>102335</v>
+        <v>102930</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.0663046777214743</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.05349824229586846</v>
+        <v>0.05368421596363921</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.08165603812477544</v>
+        <v>0.0821310384585604</v>
       </c>
     </row>
     <row r="45">
@@ -3745,19 +3745,19 @@
         <v>10353</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>4862</v>
+        <v>5309</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>18856</v>
+        <v>19301</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01393331892580844</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.006543156146774367</v>
+        <v>0.007145339873725952</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02537678788489055</v>
+        <v>0.02597649462539219</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>8</v>
@@ -3766,19 +3766,19 @@
         <v>8674</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>3400</v>
+        <v>4201</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>15315</v>
+        <v>16120</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01108622412400683</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.004345006054144029</v>
+        <v>0.005369287485706134</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01957303907854128</v>
+        <v>0.02060133479197837</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>17</v>
@@ -3787,19 +3787,19 @@
         <v>19027</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>11515</v>
+        <v>11121</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>30692</v>
+        <v>30313</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01247298042652444</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.007548693971154916</v>
+        <v>0.007290486848595627</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02011953768745177</v>
+        <v>0.0198709232597351</v>
       </c>
     </row>
     <row r="47">
@@ -3816,19 +3816,19 @@
         <v>32744</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>22701</v>
+        <v>23232</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>45387</v>
+        <v>45902</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.04406778080330959</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.03055233103205813</v>
+        <v>0.03126710113663336</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.06108360980798613</v>
+        <v>0.06177771527709559</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>49</v>
@@ -3837,19 +3837,19 @@
         <v>51414</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>38673</v>
+        <v>38368</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>66490</v>
+        <v>67043</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.06570847904413762</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.04942531072174183</v>
+        <v>0.04903620726210841</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.08497705044037709</v>
+        <v>0.08568290250368485</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>82</v>
@@ -3858,19 +3858,19 @@
         <v>84157</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>66509</v>
+        <v>68783</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>102959</v>
+        <v>101774</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.05516777816640087</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.04359879088627979</v>
+        <v>0.04508926671564313</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.06749322094510146</v>
+        <v>0.06671637574579853</v>
       </c>
     </row>
     <row r="48">
@@ -3887,19 +3887,19 @@
         <v>354247</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>326214</v>
+        <v>326016</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>380343</v>
+        <v>380687</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.4767631764013146</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.4390345022807138</v>
+        <v>0.4387681250281817</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.5118833101926935</v>
+        <v>0.5123464366942942</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>401</v>
@@ -3908,19 +3908,19 @@
         <v>422910</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>396015</v>
+        <v>396113</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>450730</v>
+        <v>451961</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.5404939218745485</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.5061214660737766</v>
+        <v>0.5062459211265947</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.5760484298996831</v>
+        <v>0.5776217729249457</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>754</v>
@@ -3929,19 +3929,19 @@
         <v>777157</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>740178</v>
+        <v>736195</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>821470</v>
+        <v>818068</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.5094520988578974</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.485210807308222</v>
+        <v>0.482600158426756</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.5385002711633687</v>
+        <v>0.536270476585372</v>
       </c>
     </row>
     <row r="49">
@@ -3958,19 +3958,19 @@
         <v>309911</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>283150</v>
+        <v>282634</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>338813</v>
+        <v>333948</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.4170924740280083</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3810767955911377</v>
+        <v>0.3803826632105328</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4559912700976018</v>
+        <v>0.4494438047910638</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>256</v>
@@ -3979,19 +3979,19 @@
         <v>266236</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>238610</v>
+        <v>238900</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>292607</v>
+        <v>290929</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3402586477945705</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3049524094653331</v>
+        <v>0.3053232312535754</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3739623801657656</v>
+        <v>0.371817040516992</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>563</v>
@@ -4000,19 +4000,19 @@
         <v>576146</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>537562</v>
+        <v>536311</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>616330</v>
+        <v>616257</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3776826888585839</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3523893918243506</v>
+        <v>0.3515696572905673</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4040245750699636</v>
+        <v>0.4039767353902428</v>
       </c>
     </row>
     <row r="50">
@@ -4029,19 +4029,19 @@
         <v>35772</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>24536</v>
+        <v>25315</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>49209</v>
+        <v>51056</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.04814324984155909</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.03302150397843163</v>
+        <v>0.03407010039997175</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.06622788832607648</v>
+        <v>0.06871424294483729</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>30</v>
@@ -4050,19 +4050,19 @@
         <v>33217</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>22833</v>
+        <v>22189</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>47521</v>
+        <v>46248</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.04245272716273657</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.0291816301106175</v>
+        <v>0.02835884880923075</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.06073341214948697</v>
+        <v>0.05910629937248876</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>63</v>
@@ -4071,19 +4071,19 @@
         <v>68989</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>52996</v>
+        <v>53676</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>89021</v>
+        <v>87434</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.0452244536905933</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.03474088568276955</v>
+        <v>0.03518638582332522</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.05835634533992014</v>
+        <v>0.05731613144374811</v>
       </c>
     </row>
     <row r="51">
@@ -4175,19 +4175,19 @@
         <v>28153</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>18939</v>
+        <v>19577</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>41687</v>
+        <v>42560</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.008601467050211732</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.005786375684951128</v>
+        <v>0.005981303231503192</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01273681233689338</v>
+        <v>0.01300333565923325</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>44</v>
@@ -4196,19 +4196,19 @@
         <v>44795</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>34012</v>
+        <v>31485</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>60096</v>
+        <v>58987</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01326413667225658</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.01007116117856879</v>
+        <v>0.009322864701981721</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.01779496325492396</v>
+        <v>0.01746647689065</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>69</v>
@@ -4217,19 +4217,19 @@
         <v>72947</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>56219</v>
+        <v>56762</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>92325</v>
+        <v>92267</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01096931194011165</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.008453802253585227</v>
+        <v>0.008535456710147292</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01388323468885895</v>
+        <v>0.0138744131425866</v>
       </c>
     </row>
     <row r="53">
@@ -4246,19 +4246,19 @@
         <v>137767</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>115769</v>
+        <v>115049</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>161940</v>
+        <v>160019</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.04209190217193519</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.03537099609479996</v>
+        <v>0.03515102568491679</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.04947750879277132</v>
+        <v>0.04889069782083424</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>165</v>
@@ -4267,19 +4267,19 @@
         <v>172369</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>148338</v>
+        <v>148352</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>199912</v>
+        <v>200145</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.05104000332720078</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.04392419634109691</v>
+        <v>0.04392844303666982</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.05919568053498041</v>
+        <v>0.05926469051215624</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>303</v>
@@ -4288,19 +4288,19 @@
         <v>310136</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>275212</v>
+        <v>276997</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>346773</v>
+        <v>347566</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.04663601902178206</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.04138439834248695</v>
+        <v>0.04165288048704334</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.05214532070127193</v>
+        <v>0.05226445241191725</v>
       </c>
     </row>
     <row r="54">
@@ -4317,19 +4317,19 @@
         <v>1314131</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1253899</v>
+        <v>1259440</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1371273</v>
+        <v>1371495</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.4015073415164402</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.3831047551066327</v>
+        <v>0.3847977911931121</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.4189659339997821</v>
+        <v>0.4190339891612023</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1498</v>
@@ -4338,19 +4338,19 @@
         <v>1539200</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1483438</v>
+        <v>1477605</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1596082</v>
+        <v>1599162</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.4557706349323732</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.4392590466867571</v>
+        <v>0.4375318547222989</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.4726136698059161</v>
+        <v>0.4735258145677467</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>2790</v>
@@ -4359,19 +4359,19 @@
         <v>2853331</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>2766874</v>
+        <v>2771568</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>2938491</v>
+        <v>2932018</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.4290638858224269</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.4160630196824391</v>
+        <v>0.4167689447588083</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.4418695073804341</v>
+        <v>0.4408962677299674</v>
       </c>
     </row>
     <row r="55">
@@ -4388,19 +4388,19 @@
         <v>1523093</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1463443</v>
+        <v>1463830</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>1585762</v>
+        <v>1582412</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.4653517654156709</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.4471268820850089</v>
+        <v>0.4472451859246122</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.4844991068283029</v>
+        <v>0.4834756149452522</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1472</v>
@@ -4409,19 +4409,19 @@
         <v>1497868</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>1441541</v>
+        <v>1439951</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>1554168</v>
+        <v>1555269</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.4435317649290447</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.4268528145293811</v>
+        <v>0.4263821691551226</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.4602025468729881</v>
+        <v>0.4605286215011774</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>2965</v>
@@ -4430,19 +4430,19 @@
         <v>3020962</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>2939041</v>
+        <v>2942273</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>3102050</v>
+        <v>3102338</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.4542709081304805</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.4419523004606783</v>
+        <v>0.4424383306990526</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.4664644663202392</v>
+        <v>0.466507696389829</v>
       </c>
     </row>
     <row r="56">
@@ -4459,19 +4459,19 @@
         <v>269850</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>239149</v>
+        <v>239444</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>302763</v>
+        <v>306181</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.08244752384574201</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.07306750756820503</v>
+        <v>0.07315738481317181</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.09250343155884851</v>
+        <v>0.09354767738650953</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>116</v>
@@ -4480,19 +4480,19 @@
         <v>122906</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>102526</v>
+        <v>103166</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>148769</v>
+        <v>146088</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.03639346013912471</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.03035885356646622</v>
+        <v>0.03054833245544168</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.04405183929994105</v>
+        <v>0.04325799847075578</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>378</v>
@@ -4501,19 +4501,19 @@
         <v>392756</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>356523</v>
+        <v>356667</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>433164</v>
+        <v>436918</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.05905987508519896</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.05361139855042341</v>
+        <v>0.05363304563259287</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.0651360951162146</v>
+        <v>0.06570066754123322</v>
       </c>
     </row>
     <row r="57">
@@ -4852,16 +4852,16 @@
         <v>4818</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17204</v>
+        <v>17487</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03191121011311281</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01634512919519507</v>
+        <v>0.01634672271216992</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05837209979406215</v>
+        <v>0.05933102378451572</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -4870,19 +4870,19 @@
         <v>8673</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4107</v>
+        <v>3411</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17013</v>
+        <v>16350</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03019214218878192</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01429801921298537</v>
+        <v>0.01187525364740622</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05922820231158806</v>
+        <v>0.05691983288109784</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -4891,19 +4891,19 @@
         <v>18078</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10792</v>
+        <v>10922</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28265</v>
+        <v>29069</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0310627426491601</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01854365577841983</v>
+        <v>0.01876719953379533</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04856697120999105</v>
+        <v>0.04994746470273607</v>
       </c>
     </row>
     <row r="5">
@@ -4920,19 +4920,19 @@
         <v>21045</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13329</v>
+        <v>13318</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31410</v>
+        <v>32419</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0714009745483967</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04522355492061685</v>
+        <v>0.04518703278170429</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1065686774047062</v>
+        <v>0.1099926925921491</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -4941,19 +4941,19 @@
         <v>10203</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5134</v>
+        <v>4939</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18447</v>
+        <v>19409</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03551938654978128</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01787264785106227</v>
+        <v>0.01719595741060463</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06422210536946701</v>
+        <v>0.06756958166481727</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>29</v>
@@ -4962,19 +4962,19 @@
         <v>31247</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22061</v>
+        <v>21264</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44658</v>
+        <v>43882</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05369116823947456</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03790700490283894</v>
+        <v>0.03653775397565282</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07673371762375454</v>
+        <v>0.07540145095149318</v>
       </c>
     </row>
     <row r="6">
@@ -4991,19 +4991,19 @@
         <v>104338</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>86497</v>
+        <v>87883</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>121923</v>
+        <v>122063</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3540039778654371</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.293470642680279</v>
+        <v>0.2981740602565567</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4136652845985975</v>
+        <v>0.4141408931422697</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>104</v>
@@ -5012,19 +5012,19 @@
         <v>115378</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>97929</v>
+        <v>98093</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>132091</v>
+        <v>131767</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4016705354481899</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3409264009667292</v>
+        <v>0.3414951278551008</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4598544571640238</v>
+        <v>0.4587285308129757</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>204</v>
@@ -5033,19 +5033,19 @@
         <v>219716</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>196617</v>
+        <v>195128</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>242933</v>
+        <v>246155</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3775304032353569</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3378393065196437</v>
+        <v>0.3352814012113361</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4174231936360891</v>
+        <v>0.4229584989164887</v>
       </c>
     </row>
     <row r="7">
@@ -5062,19 +5062,19 @@
         <v>111865</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>95277</v>
+        <v>94283</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>131176</v>
+        <v>130419</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3795406350205703</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3232591592810826</v>
+        <v>0.3198873407802942</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.445060730802561</v>
+        <v>0.4424918377928993</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>96</v>
@@ -5083,19 +5083,19 @@
         <v>108504</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>91952</v>
+        <v>90431</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>126461</v>
+        <v>125743</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.377741256665089</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3201158206948683</v>
+        <v>0.3148210168219152</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4402537837622144</v>
+        <v>0.4377554582241925</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>202</v>
@@ -5104,19 +5104,19 @@
         <v>220369</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>196182</v>
+        <v>196615</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>243911</v>
+        <v>245406</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3786525293393705</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3370930143662889</v>
+        <v>0.3378368669654448</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4191040119971705</v>
+        <v>0.4216721062703994</v>
       </c>
     </row>
     <row r="8">
@@ -5133,19 +5133,19 @@
         <v>48085</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>35401</v>
+        <v>35201</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>62106</v>
+        <v>61315</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1631432024524831</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1201110416872557</v>
+        <v>0.1194301517007015</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2107172680917795</v>
+        <v>0.2080322096085739</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -5154,19 +5154,19 @@
         <v>44488</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>33772</v>
+        <v>32827</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>58928</v>
+        <v>58096</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.154876679148158</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1175719683108493</v>
+        <v>0.1142837215867283</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2051488217871161</v>
+        <v>0.2022517837440251</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>86</v>
@@ -5175,19 +5175,19 @@
         <v>92572</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>76659</v>
+        <v>75611</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>110279</v>
+        <v>113061</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.159063156536638</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1317207927239658</v>
+        <v>0.1299192954433617</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1894876164272489</v>
+        <v>0.1942679866433734</v>
       </c>
     </row>
     <row r="9">
@@ -5282,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7119</v>
+        <v>6218</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004066591344169656</v>
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01411137231063655</v>
+        <v>0.01232485635663147</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -5300,19 +5300,19 @@
         <v>6078</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2118</v>
+        <v>2914</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12336</v>
+        <v>12991</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01169797461139137</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004077081552999321</v>
+        <v>0.005609593833634498</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02374426554360733</v>
+        <v>0.02500442513891961</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -5321,19 +5321,19 @@
         <v>8129</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4075</v>
+        <v>3901</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16166</v>
+        <v>14977</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007938421153210931</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003979735704754381</v>
+        <v>0.003809706906527214</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01578677505612516</v>
+        <v>0.01462517805329213</v>
       </c>
     </row>
     <row r="11">
@@ -5350,19 +5350,19 @@
         <v>13722</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6464</v>
+        <v>6594</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25778</v>
+        <v>25714</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02720078663628041</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01281214280422336</v>
+        <v>0.01307133309197104</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05109786643443326</v>
+        <v>0.05096960402975108</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -5371,19 +5371,19 @@
         <v>23733</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15294</v>
+        <v>14434</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>34812</v>
+        <v>34118</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04568044403789457</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02943716346234128</v>
+        <v>0.02778112557007662</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06700339406556781</v>
+        <v>0.06566793426150598</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>33</v>
@@ -5392,19 +5392,19 @@
         <v>37456</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>26357</v>
+        <v>26702</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>52025</v>
+        <v>52900</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03657655586225567</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02573852916325708</v>
+        <v>0.02607487662473082</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05080390636183069</v>
+        <v>0.05165822892478451</v>
       </c>
     </row>
     <row r="12">
@@ -5421,19 +5421,19 @@
         <v>193393</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>171251</v>
+        <v>172135</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>216997</v>
+        <v>215582</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3833459140819137</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.339456266993485</v>
+        <v>0.3412079719208521</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.430133557372573</v>
+        <v>0.4273286354954093</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>201</v>
@@ -5442,19 +5442,19 @@
         <v>216927</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>195541</v>
+        <v>193731</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>242257</v>
+        <v>240636</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4175264322206211</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3763642465433755</v>
+        <v>0.3728796226568911</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4662802084084056</v>
+        <v>0.4631598332521235</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>388</v>
@@ -5463,19 +5463,19 @@
         <v>410320</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>378978</v>
+        <v>377756</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>441600</v>
+        <v>442978</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4006876127469977</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3700813213607509</v>
+        <v>0.3688887555066225</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4312339906427137</v>
+        <v>0.4325795453474163</v>
       </c>
     </row>
     <row r="13">
@@ -5492,19 +5492,19 @@
         <v>279859</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>256024</v>
+        <v>256433</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>303012</v>
+        <v>302167</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5547396559841942</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5074942071121818</v>
+        <v>0.5083043984926046</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6006345221659641</v>
+        <v>0.5989595452139143</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>240</v>
@@ -5513,19 +5513,19 @@
         <v>266667</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>242464</v>
+        <v>244102</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>288960</v>
+        <v>290848</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5132627694778686</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4666786955425673</v>
+        <v>0.4698301080129789</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5561696954674032</v>
+        <v>0.5598051916105609</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>497</v>
@@ -5534,19 +5534,19 @@
         <v>546526</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>515085</v>
+        <v>512429</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>579165</v>
+        <v>579049</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5336960994049846</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5029931245027158</v>
+        <v>0.5003998566996947</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5655691722443865</v>
+        <v>0.5654560040809893</v>
       </c>
     </row>
     <row r="14">
@@ -5563,19 +5563,19 @@
         <v>15461</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8931</v>
+        <v>8602</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25926</v>
+        <v>24547</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03064705195344208</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01770262781908961</v>
+        <v>0.01705128386079236</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05139076373834838</v>
+        <v>0.04865774343170751</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -5584,19 +5584,19 @@
         <v>6148</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2971</v>
+        <v>2150</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12597</v>
+        <v>13535</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01183237965222435</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005717435053678019</v>
+        <v>0.004138646296841607</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02424495339952759</v>
+        <v>0.02605154093244861</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>21</v>
@@ -5605,19 +5605,19 @@
         <v>21609</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13361</v>
+        <v>13561</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>31734</v>
+        <v>32511</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02110131083255106</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01304766710035871</v>
+        <v>0.01324234967262541</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03098858959787242</v>
+        <v>0.03174795723327335</v>
       </c>
     </row>
     <row r="15">
@@ -5722,19 +5722,19 @@
         <v>8119</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3299</v>
+        <v>3261</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16185</v>
+        <v>16298</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02388477607610488</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009705548647598927</v>
+        <v>0.009593471431594839</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04761325914443029</v>
+        <v>0.04794587260595818</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -5743,19 +5743,19 @@
         <v>8119</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4003</v>
+        <v>3100</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16985</v>
+        <v>16186</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01226403352157777</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006046587745655181</v>
+        <v>0.004683079871041536</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0256568334880691</v>
+        <v>0.02445021350646204</v>
       </c>
     </row>
     <row r="17">
@@ -5772,19 +5772,19 @@
         <v>46757</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34606</v>
+        <v>34831</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62011</v>
+        <v>60912</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1451698997003609</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1074424082835595</v>
+        <v>0.1081408105966802</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1925287362832784</v>
+        <v>0.1891174537192816</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>59</v>
@@ -5793,19 +5793,19 @@
         <v>65187</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>52610</v>
+        <v>51909</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>81345</v>
+        <v>81983</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1917721435076785</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1547722861115745</v>
+        <v>0.1527107281647735</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2393063852698413</v>
+        <v>0.2411832143840882</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>102</v>
@@ -5814,19 +5814,19 @@
         <v>111944</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>94507</v>
+        <v>92790</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>133801</v>
+        <v>134641</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1690985929572118</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1427584752035681</v>
+        <v>0.1401640810669981</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2021149301782293</v>
+        <v>0.2033834458157754</v>
       </c>
     </row>
     <row r="18">
@@ -5843,19 +5843,19 @@
         <v>130999</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>111196</v>
+        <v>114418</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>148938</v>
+        <v>151000</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4067176478114254</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3452347599903126</v>
+        <v>0.3552381614420422</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4624140059123184</v>
+        <v>0.4688173452626205</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>148</v>
@@ -5864,19 +5864,19 @@
         <v>159622</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>139263</v>
+        <v>142638</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>177816</v>
+        <v>178261</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4695888526010787</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4096944707180401</v>
+        <v>0.4196232954408574</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5231131349182863</v>
+        <v>0.5244223076337731</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>273</v>
@@ -5885,19 +5885,19 @@
         <v>290621</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>264612</v>
+        <v>264720</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>316080</v>
+        <v>316189</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4389999083034414</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3997113671212074</v>
+        <v>0.3998745747421522</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4774567032947784</v>
+        <v>0.4776213142989898</v>
       </c>
     </row>
     <row r="19">
@@ -5914,19 +5914,19 @@
         <v>128888</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>112482</v>
+        <v>110947</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>147305</v>
+        <v>146293</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4001643810802668</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3492272662425946</v>
+        <v>0.3444623267532976</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4573425002286339</v>
+        <v>0.4542033483384165</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>93</v>
@@ -5935,19 +5935,19 @@
         <v>96990</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>80556</v>
+        <v>81119</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>114005</v>
+        <v>113810</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2853328015515057</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2369860930900746</v>
+        <v>0.2386425853656259</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3353884732301731</v>
+        <v>0.3348147203607904</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>226</v>
@@ -5956,19 +5956,19 @@
         <v>225878</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>202698</v>
+        <v>203060</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>252303</v>
+        <v>253692</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3412022063381155</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3061864659147729</v>
+        <v>0.3067343222553892</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3811189889539446</v>
+        <v>0.3832171580981396</v>
       </c>
     </row>
     <row r="20">
@@ -5985,19 +5985,19 @@
         <v>15443</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8822</v>
+        <v>9479</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24937</v>
+        <v>24127</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0479480714079468</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02739119809795076</v>
+        <v>0.02942952697992538</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07742315006148955</v>
+        <v>0.07490764627996065</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -6006,19 +6006,19 @@
         <v>10001</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4917</v>
+        <v>4886</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18589</v>
+        <v>19344</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02942142626363221</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01446413509926337</v>
+        <v>0.01437292148758507</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05468538446782542</v>
+        <v>0.05690819328451274</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -6027,19 +6027,19 @@
         <v>25444</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16776</v>
+        <v>16492</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>35716</v>
+        <v>37362</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03843525887965352</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02534062538331823</v>
+        <v>0.02491170332563575</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05395157472184338</v>
+        <v>0.05643736281255748</v>
       </c>
     </row>
     <row r="21">
@@ -6131,19 +6131,19 @@
         <v>7716</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3208</v>
+        <v>3201</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17616</v>
+        <v>16541</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02063232863020091</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008578972832686355</v>
+        <v>0.008559488015254847</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04710330816993769</v>
+        <v>0.04422878260834714</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7423</v>
+        <v>5267</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.002938365934422421</v>
@@ -6164,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01913886869209197</v>
+        <v>0.01357991040970152</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -6173,19 +6173,19 @@
         <v>8856</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3909</v>
+        <v>4001</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18768</v>
+        <v>19924</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01162403754479811</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005131274655686396</v>
+        <v>0.00525178384340113</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02463439097418323</v>
+        <v>0.02615249144264305</v>
       </c>
     </row>
     <row r="23">
@@ -6202,19 +6202,19 @@
         <v>17928</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10538</v>
+        <v>11008</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>27227</v>
+        <v>28330</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04793841434891596</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02817795348159131</v>
+        <v>0.02943563914100096</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07280373743854231</v>
+        <v>0.07575358173164629</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>28</v>
@@ -6223,19 +6223,19 @@
         <v>30494</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>20368</v>
+        <v>21075</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>43553</v>
+        <v>41773</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07861949764175985</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05251102725356455</v>
+        <v>0.05433598909488443</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1122872458438181</v>
+        <v>0.1076967244769211</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>45</v>
@@ -6244,19 +6244,19 @@
         <v>48422</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>35930</v>
+        <v>36259</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>62980</v>
+        <v>64841</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06355866481905893</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04716132918733031</v>
+        <v>0.04759252145572964</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08266690681830756</v>
+        <v>0.08510893998165789</v>
       </c>
     </row>
     <row r="24">
@@ -6273,19 +6273,19 @@
         <v>133886</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>114478</v>
+        <v>115230</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>153843</v>
+        <v>154306</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.358001237582495</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.306105918339557</v>
+        <v>0.3081155966711368</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4113660188580436</v>
+        <v>0.4126032624224965</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>128</v>
@@ -6294,19 +6294,19 @@
         <v>131279</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>112674</v>
+        <v>111160</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>151551</v>
+        <v>148455</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3384597312597109</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2904931158798859</v>
+        <v>0.2865882205047255</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3907236618684714</v>
+        <v>0.3827402942104048</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>249</v>
@@ -6315,19 +6315,19 @@
         <v>265165</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>239099</v>
+        <v>240276</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>291944</v>
+        <v>290870</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3480523312674117</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3138373159495682</v>
+        <v>0.3153830113607148</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3832019479310058</v>
+        <v>0.3817918881079901</v>
       </c>
     </row>
     <row r="25">
@@ -6344,19 +6344,19 @@
         <v>176203</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>158808</v>
+        <v>154374</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>197470</v>
+        <v>195401</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4711527404915987</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.424639863116969</v>
+        <v>0.4127844147311253</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5280207424903187</v>
+        <v>0.5224868188022048</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>185</v>
@@ -6365,19 +6365,19 @@
         <v>196160</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>175519</v>
+        <v>176710</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>215583</v>
+        <v>216473</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5057337151029885</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4525169444143579</v>
+        <v>0.4555882801344071</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.555807756985894</v>
+        <v>0.5581025380909636</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>348</v>
@@ -6386,19 +6386,19 @@
         <v>372363</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>343274</v>
+        <v>343410</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>402074</v>
+        <v>398989</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4887584905811841</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4505761702212345</v>
+        <v>0.4507549346885446</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5277565476852267</v>
+        <v>0.5237076552710362</v>
       </c>
     </row>
     <row r="26">
@@ -6415,19 +6415,19 @@
         <v>38249</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>27239</v>
+        <v>28261</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>51141</v>
+        <v>52525</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1022752789467895</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07283430483379857</v>
+        <v>0.07556876498263106</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.136746740510408</v>
+        <v>0.1404474074050815</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>28</v>
@@ -6436,19 +6436,19 @@
         <v>28799</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>19682</v>
+        <v>19548</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>40697</v>
+        <v>40925</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07424869006111838</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05074319182821872</v>
+        <v>0.05039665394252663</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1049223712167882</v>
+        <v>0.1055115555865106</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>65</v>
@@ -6457,19 +6457,19 @@
         <v>67048</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>53159</v>
+        <v>52730</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>84364</v>
+        <v>83161</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08800647578754717</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0697754679065178</v>
+        <v>0.0692120930824774</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1107344611586828</v>
+        <v>0.109156476861506</v>
       </c>
     </row>
     <row r="27">
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5546</v>
+        <v>6701</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005072137265101966</v>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0253713874421808</v>
+        <v>0.03065336358471461</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1</v>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4903</v>
+        <v>5541</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.002571244516750901</v>
@@ -6607,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01137011139887172</v>
+        <v>0.01285056929748497</v>
       </c>
     </row>
     <row r="29">
@@ -6624,19 +6624,19 @@
         <v>15798</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8987</v>
+        <v>8722</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>25866</v>
+        <v>25976</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.074301087134286</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04226892947555668</v>
+        <v>0.04102057968978579</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1216565536261625</v>
+        <v>0.1221723275584275</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>23</v>
@@ -6645,19 +6645,19 @@
         <v>24026</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16202</v>
+        <v>16737</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>36052</v>
+        <v>34901</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1099081649191664</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07411574814671375</v>
+        <v>0.0765635122578233</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1649218447958232</v>
+        <v>0.1596581110985491</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>37</v>
@@ -6666,19 +6666,19 @@
         <v>39824</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>28384</v>
+        <v>29173</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>53456</v>
+        <v>53804</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09235156540935609</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0658236937018863</v>
+        <v>0.06765315846313603</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1239657895160111</v>
+        <v>0.124772432878031</v>
       </c>
     </row>
     <row r="30">
@@ -6695,19 +6695,19 @@
         <v>111716</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>96528</v>
+        <v>96665</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>127004</v>
+        <v>127794</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5254305722633812</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4539961822743171</v>
+        <v>0.454640714021425</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5973338846373383</v>
+        <v>0.6010497524987036</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>119</v>
@@ -6716,19 +6716,19 @@
         <v>123399</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>108527</v>
+        <v>108259</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>137673</v>
+        <v>137752</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5644985688667248</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4964655864955095</v>
+        <v>0.4952397234946328</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6297952773332607</v>
+        <v>0.6301572143365862</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>223</v>
@@ -6737,19 +6737,19 @@
         <v>235115</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>214125</v>
+        <v>211967</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>255610</v>
+        <v>255622</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5452355118374624</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.496559747913046</v>
+        <v>0.4915545257411027</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.592764989553162</v>
+        <v>0.5927925341313255</v>
       </c>
     </row>
     <row r="31">
@@ -6766,19 +6766,19 @@
         <v>78138</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>64140</v>
+        <v>65268</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>93780</v>
+        <v>95122</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3675023275702498</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3016671587569479</v>
+        <v>0.3069715926025833</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4410733638397146</v>
+        <v>0.4473833567933136</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>60</v>
@@ -6787,19 +6787,19 @@
         <v>61698</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>48483</v>
+        <v>49495</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>75529</v>
+        <v>76181</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.282240681820349</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2217898985161608</v>
+        <v>0.2264198264301599</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3455145237103865</v>
+        <v>0.348496455475343</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>131</v>
@@ -6808,19 +6808,19 @@
         <v>139835</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>122197</v>
+        <v>118958</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>161686</v>
+        <v>160323</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3242802048899435</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2833780189915204</v>
+        <v>0.2758649172415966</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3749527745593138</v>
+        <v>0.371791043131853</v>
       </c>
     </row>
     <row r="32">
@@ -6837,19 +6837,19 @@
         <v>6967</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2964</v>
+        <v>2848</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>13033</v>
+        <v>13764</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0327660130320831</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01394145641489518</v>
+        <v>0.01339361347806045</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06129591617034122</v>
+        <v>0.06473493667863513</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -6858,19 +6858,19 @@
         <v>8368</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3826</v>
+        <v>3722</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>15925</v>
+        <v>15676</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03828044712865789</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01750427555922975</v>
+        <v>0.01702645400736861</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07285208114100543</v>
+        <v>0.07171190397294061</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>15</v>
@@ -6879,19 +6879,19 @@
         <v>15335</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>9264</v>
+        <v>9242</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>24357</v>
+        <v>25128</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03556147334648709</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02148411205703891</v>
+        <v>0.02143177641534208</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05648533217416716</v>
+        <v>0.05827324648032976</v>
       </c>
     </row>
     <row r="33">
@@ -6996,19 +6996,19 @@
         <v>3046</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8730</v>
+        <v>8160</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01087828026938067</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.003391758878452527</v>
+        <v>0.003368291332911558</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03117471073603058</v>
+        <v>0.02913834595039465</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -7017,19 +7017,19 @@
         <v>3046</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>8238</v>
+        <v>8169</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.005517681779886662</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001701720737309622</v>
+        <v>0.001716041362828445</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01492210164981079</v>
+        <v>0.01479623361527022</v>
       </c>
     </row>
     <row r="35">
@@ -7046,19 +7046,19 @@
         <v>41613</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>31621</v>
+        <v>30657</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>55617</v>
+        <v>55232</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1529558686314111</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1162282304021801</v>
+        <v>0.1126839449871805</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2044304602958197</v>
+        <v>0.2030142496632623</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>53</v>
@@ -7067,19 +7067,19 @@
         <v>55115</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>42641</v>
+        <v>43598</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>70636</v>
+        <v>69961</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1968175622431152</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1522738274862284</v>
+        <v>0.1556887109522455</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.252244161790366</v>
+        <v>0.2498325027537135</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>93</v>
@@ -7088,19 +7088,19 @@
         <v>96728</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>79582</v>
+        <v>79800</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>116540</v>
+        <v>116702</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1752033987265379</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1441468389698704</v>
+        <v>0.1445410582637563</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.211088454464608</v>
+        <v>0.2113820135908829</v>
       </c>
     </row>
     <row r="36">
@@ -7117,19 +7117,19 @@
         <v>110631</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>93200</v>
+        <v>93868</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>126895</v>
+        <v>127621</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4066428800637536</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3425739016708925</v>
+        <v>0.3450286981392623</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4664252751171497</v>
+        <v>0.4690939236704707</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>113</v>
@@ -7138,19 +7138,19 @@
         <v>116798</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>101598</v>
+        <v>101012</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>132317</v>
+        <v>132867</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4170898017481283</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3628096659642347</v>
+        <v>0.3607182231122461</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4725072229331275</v>
+        <v>0.474471137786408</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>219</v>
@@ -7159,19 +7159,19 @@
         <v>227429</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>204933</v>
+        <v>206395</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>250176</v>
+        <v>252701</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4119417681238476</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3711947302807042</v>
+        <v>0.3738430171297767</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4531437085601852</v>
+        <v>0.4577170829466244</v>
       </c>
     </row>
     <row r="37">
@@ -7188,19 +7188,19 @@
         <v>108663</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>93021</v>
+        <v>91688</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>126686</v>
+        <v>122808</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3994113648100729</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3419144134741587</v>
+        <v>0.3370136317085378</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4656550665944012</v>
+        <v>0.4514032959095315</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>88</v>
@@ -7209,19 +7209,19 @@
         <v>91567</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>76987</v>
+        <v>76045</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>108185</v>
+        <v>108062</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3269883893604182</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2749247594557569</v>
+        <v>0.271559042262129</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3863337806421305</v>
+        <v>0.3858944982695729</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>190</v>
@@ -7230,19 +7230,19 @@
         <v>200230</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>178388</v>
+        <v>177507</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>223645</v>
+        <v>222557</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3626769801290198</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3231131650131836</v>
+        <v>0.3215177647085766</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4050883701789212</v>
+        <v>0.4031177213979463</v>
       </c>
     </row>
     <row r="38">
@@ -7259,19 +7259,19 @@
         <v>11152</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>5768</v>
+        <v>5602</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>19318</v>
+        <v>19212</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.04098988649476247</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02120217747172843</v>
+        <v>0.02058981694979089</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.07100754006951239</v>
+        <v>0.07061718542381507</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>12</v>
@@ -7280,19 +7280,19 @@
         <v>13505</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>7657</v>
+        <v>6739</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>23542</v>
+        <v>22246</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.0482259663789577</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.02734275970614994</v>
+        <v>0.02406549854815821</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.08406954624684621</v>
+        <v>0.07944263269785405</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>23</v>
@@ -7301,19 +7301,19 @@
         <v>24656</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>16043</v>
+        <v>16126</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>36808</v>
+        <v>37774</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.04466017124070803</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.02905854049307429</v>
+        <v>0.02920988118287954</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.06667114637711015</v>
+        <v>0.06841981728802705</v>
       </c>
     </row>
     <row r="39">
@@ -7405,19 +7405,19 @@
         <v>9176</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4162</v>
+        <v>4764</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>19438</v>
+        <v>19141</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01405945636722091</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.006377293246644709</v>
+        <v>0.007298700282658028</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0297830549941107</v>
+        <v>0.02932791192980443</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>10</v>
@@ -7426,19 +7426,19 @@
         <v>10937</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>5195</v>
+        <v>5319</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>19459</v>
+        <v>19685</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01587406728600297</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.00754047365125022</v>
+        <v>0.007719621602688732</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02824239940438819</v>
+        <v>0.02857027077120362</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>18</v>
@@ -7447,19 +7447,19 @@
         <v>20113</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>12413</v>
+        <v>12664</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>32534</v>
+        <v>32915</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01499134935251964</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.009252299366527989</v>
+        <v>0.00943928564319375</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02424912819045108</v>
+        <v>0.0245330764181752</v>
       </c>
     </row>
     <row r="41">
@@ -7476,19 +7476,19 @@
         <v>51713</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>38404</v>
+        <v>38508</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>67705</v>
+        <v>69054</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.07923460116722651</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.05884243467738266</v>
+        <v>0.05900188811748922</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1037376568255012</v>
+        <v>0.1058053635311667</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>68</v>
@@ -7497,19 +7497,19 @@
         <v>76982</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>61585</v>
+        <v>60091</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>96225</v>
+        <v>94991</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1117278758867385</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.08938176342800665</v>
+        <v>0.08721347719526043</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1396560527096805</v>
+        <v>0.1378661392586907</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>113</v>
@@ -7518,19 +7518,19 @@
         <v>128694</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>106486</v>
+        <v>106617</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>151824</v>
+        <v>154717</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.09592151430495918</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07936873134590629</v>
+        <v>0.07946634708199884</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1131610967526632</v>
+        <v>0.1153174900215444</v>
       </c>
     </row>
     <row r="42">
@@ -7547,19 +7547,19 @@
         <v>267050</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>238182</v>
+        <v>239873</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>293658</v>
+        <v>294906</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.409176397148946</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3649450265492728</v>
+        <v>0.3675351767020271</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4499461522936251</v>
+        <v>0.4518581880381379</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>306</v>
@@ -7568,19 +7568,19 @@
         <v>331209</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>305662</v>
+        <v>306753</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>361491</v>
+        <v>361418</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4807022759007827</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4436249318188635</v>
+        <v>0.4452080656111667</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5246520946166627</v>
+        <v>0.5245453598243123</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>548</v>
@@ -7589,19 +7589,19 @@
         <v>598259</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>564045</v>
+        <v>560614</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>639017</v>
+        <v>635007</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4459084943639793</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4204072286551824</v>
+        <v>0.41784981178542</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4762869562616407</v>
+        <v>0.4732986163567255</v>
       </c>
     </row>
     <row r="43">
@@ -7618,19 +7618,19 @@
         <v>266190</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>240627</v>
+        <v>241607</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>293397</v>
+        <v>293127</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.4078585866733597</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3686910412514107</v>
+        <v>0.3701921580392569</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4495460406747857</v>
+        <v>0.449132138527965</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>212</v>
@@ -7639,19 +7639,19 @@
         <v>230409</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>203986</v>
+        <v>205006</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>254948</v>
+        <v>255902</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3344057985230949</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2960567696692681</v>
+        <v>0.2975371110857616</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3700200175781629</v>
+        <v>0.3714051874548938</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>471</v>
@@ -7660,19 +7660,19 @@
         <v>496599</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>461525</v>
+        <v>457996</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>533245</v>
+        <v>531424</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3701369256167804</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.343994959672086</v>
+        <v>0.3413645708305938</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3974505574542858</v>
+        <v>0.3960931626769301</v>
       </c>
     </row>
     <row r="44">
@@ -7689,19 +7689,19 @@
         <v>58524</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>43890</v>
+        <v>44576</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>75161</v>
+        <v>75300</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.08967095864324684</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.06724889610865331</v>
+        <v>0.06829920525855528</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1151617354418184</v>
+        <v>0.1153747267891288</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>37</v>
@@ -7710,19 +7710,19 @@
         <v>39473</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>28767</v>
+        <v>28135</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>53832</v>
+        <v>53014</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.05728998240338082</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.04175086269425612</v>
+        <v>0.04083354090324834</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.0781293935837151</v>
+        <v>0.07694177647228237</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>93</v>
@@ -7731,19 +7731,19 @@
         <v>97997</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>80893</v>
+        <v>79682</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>117888</v>
+        <v>116737</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.07304171636176143</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.06029312320298829</v>
+        <v>0.05939015667356822</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.08786683692312082</v>
+        <v>0.0870088827639655</v>
       </c>
     </row>
     <row r="45">
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>7227</v>
+        <v>6362</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.002646702807950356</v>
@@ -7847,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.009289727174103873</v>
+        <v>0.008177768624484822</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>5</v>
@@ -7856,19 +7856,19 @@
         <v>6440</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>2205</v>
+        <v>2263</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>14731</v>
+        <v>14536</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.007827093900072543</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.00267943198174598</v>
+        <v>0.00275044349619433</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01790313627766473</v>
+        <v>0.01766684627490696</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>7</v>
@@ -7877,19 +7877,19 @@
         <v>8499</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>3405</v>
+        <v>4157</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>17891</v>
+        <v>19005</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.005309398146750376</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.002127317396421055</v>
+        <v>0.002596665575055094</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01117625059001887</v>
+        <v>0.01187193748834533</v>
       </c>
     </row>
     <row r="47">
@@ -7906,19 +7906,19 @@
         <v>29625</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>19910</v>
+        <v>19978</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>42648</v>
+        <v>42111</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.03807799269687659</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02559163708855127</v>
+        <v>0.02567900163896278</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.05481719406048331</v>
+        <v>0.05412743222756716</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>37</v>
@@ -7927,19 +7927,19 @@
         <v>39783</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>28325</v>
+        <v>28357</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>53110</v>
+        <v>54458</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.04835002594763987</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.03442478578553678</v>
+        <v>0.03446384614676143</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.06454769535140906</v>
+        <v>0.06618578986892383</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>64</v>
@@ -7948,19 +7948,19 @@
         <v>69407</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>52478</v>
+        <v>54657</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>86851</v>
+        <v>88186</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.04335776686265324</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.03278250182299648</v>
+        <v>0.03414364734434511</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.05425447445407988</v>
+        <v>0.05508850351017647</v>
       </c>
     </row>
     <row r="48">
@@ -7977,19 +7977,19 @@
         <v>277993</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>251446</v>
+        <v>251868</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>307861</v>
+        <v>307530</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3573176417002069</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3231948691060231</v>
+        <v>0.3237374015090764</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3957082176279742</v>
+        <v>0.3952823656904102</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>323</v>
@@ -7998,19 +7998,19 @@
         <v>354750</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>325484</v>
+        <v>325413</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>384271</v>
+        <v>384252</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.4311462442161785</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3955776937366554</v>
+        <v>0.395490754034503</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.4670242189499921</v>
+        <v>0.4670009554273242</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>580</v>
@@ -8019,19 +8019,19 @@
         <v>632743</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>589785</v>
+        <v>592675</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>671786</v>
+        <v>674640</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3952651773772604</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3684299204042229</v>
+        <v>0.3702356068246325</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.4196547113554315</v>
+        <v>0.4214375233438921</v>
       </c>
     </row>
     <row r="49">
@@ -8048,19 +8048,19 @@
         <v>390897</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>362464</v>
+        <v>360431</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>421422</v>
+        <v>420950</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.5024389010359775</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.4658916165494579</v>
+        <v>0.4632792331534384</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.5416735877291913</v>
+        <v>0.5410666769780702</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>332</v>
@@ -8069,19 +8069,19 @@
         <v>358164</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>325882</v>
+        <v>329205</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>384395</v>
+        <v>386232</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.4352947582641535</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3960615012821003</v>
+        <v>0.4000994089243012</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4671746780915255</v>
+        <v>0.4694073688294834</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>693</v>
@@ -8090,19 +8090,19 @@
         <v>749061</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>712799</v>
+        <v>705668</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>793688</v>
+        <v>786658</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.4679271445282235</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.4452748441295345</v>
+        <v>0.4408206536191462</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4958050494837345</v>
+        <v>0.4914135366468092</v>
       </c>
     </row>
     <row r="50">
@@ -8119,19 +8119,19 @@
         <v>77426</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>61060</v>
+        <v>61016</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>96486</v>
+        <v>97183</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.09951876175898863</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.07848319819406234</v>
+        <v>0.07842653744560944</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1240182136437529</v>
+        <v>0.1249133679605881</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>59</v>
@@ -8140,19 +8140,19 @@
         <v>63670</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>49338</v>
+        <v>48324</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>81827</v>
+        <v>80435</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.07738187767195559</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.05996291382427368</v>
+        <v>0.05873052660102322</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.09944874214924912</v>
+        <v>0.09775646338806157</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>128</v>
@@ -8161,19 +8161,19 @@
         <v>141096</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>116579</v>
+        <v>119911</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>167023</v>
+        <v>165799</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.08814051308511246</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.0728250512445771</v>
+        <v>0.07490654984904037</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1043368634582963</v>
+        <v>0.1035718921457537</v>
       </c>
     </row>
     <row r="51">
@@ -8265,19 +8265,19 @@
         <v>30408</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>20425</v>
+        <v>21267</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>45248</v>
+        <v>46784</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.008915723692370609</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.005988777969098289</v>
+        <v>0.006235534458685293</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01326665788884774</v>
+        <v>0.01371728285701387</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>40</v>
@@ -8286,19 +8286,19 @@
         <v>45541</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>31985</v>
+        <v>33146</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>61716</v>
+        <v>62880</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01284653845604761</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.009022540187323189</v>
+        <v>0.009349845795726909</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.01740920662082811</v>
+        <v>0.01773738145704477</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>68</v>
@@ -8307,19 +8307,19 @@
         <v>75950</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>58940</v>
+        <v>58835</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>96300</v>
+        <v>95722</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01091911099068069</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.008473638204953901</v>
+        <v>0.008458592184154783</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01384479361132402</v>
+        <v>0.01376169609832645</v>
       </c>
     </row>
     <row r="53">
@@ -8336,19 +8336,19 @@
         <v>238201</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>211180</v>
+        <v>208292</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>274702</v>
+        <v>271205</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.0698408020807096</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.06191841089138445</v>
+        <v>0.06107152341360565</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.08054301114457345</v>
+        <v>0.07951767151341044</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>300</v>
@@ -8357,19 +8357,19 @@
         <v>325523</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>291410</v>
+        <v>288577</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>363211</v>
+        <v>361129</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.0918249175660036</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.08220212032451618</v>
+        <v>0.08140318046686686</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1024561168330712</v>
+        <v>0.1018688443613403</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>516</v>
@@ -8378,19 +8378,19 @@
         <v>563723</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>517905</v>
+        <v>517788</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>610133</v>
+        <v>612121</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.08104527249605453</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.07445812486127883</v>
+        <v>0.07444128017096523</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.08771754247185835</v>
+        <v>0.08800333784588399</v>
       </c>
     </row>
     <row r="54">
@@ -8407,19 +8407,19 @@
         <v>1330006</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1275087</v>
+        <v>1277277</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1393121</v>
+        <v>1394058</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.3899597669366235</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.3738573309561514</v>
+        <v>0.3744993709367462</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.4084651814505994</v>
+        <v>0.4087397400929582</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1442</v>
@@ -8428,19 +8428,19 @@
         <v>1549362</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1488161</v>
+        <v>1485530</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1607051</v>
+        <v>1605388</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.4370510829678214</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.4197870677805526</v>
+        <v>0.4190450466075559</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.453324263814186</v>
+        <v>0.452855180787148</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>2684</v>
@@ -8449,19 +8449,19 @@
         <v>2879368</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>2790446</v>
+        <v>2798967</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>2966896</v>
+        <v>2964952</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.4139604258507458</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.4011762690619011</v>
+        <v>0.4024012843954167</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.4265440286595329</v>
+        <v>0.4262646100226566</v>
       </c>
     </row>
     <row r="55">
@@ -8478,19 +8478,19 @@
         <v>1540703</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1473752</v>
+        <v>1483695</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>1598066</v>
+        <v>1603194</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.4517363836176892</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.4321063861446413</v>
+        <v>0.4350214773338621</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.468555375447304</v>
+        <v>0.4700589627693022</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1306</v>
@@ -8499,19 +8499,19 @@
         <v>1410159</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>1350372</v>
+        <v>1354177</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>1473516</v>
+        <v>1473606</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.3977839756920595</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.3809188854289408</v>
+        <v>0.381992248703761</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.4156560384853135</v>
+        <v>0.4156812901338579</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>2758</v>
@@ -8520,19 +8520,19 @@
         <v>2950862</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>2865696</v>
+        <v>2867707</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>3035148</v>
+        <v>3032903</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.4242388862158166</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.4119947344509209</v>
+        <v>0.4122838340972875</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.4363564980123374</v>
+        <v>0.4360338168738747</v>
       </c>
     </row>
     <row r="56">
@@ -8549,19 +8549,19 @@
         <v>271306</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>239399</v>
+        <v>240739</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>306394</v>
+        <v>305689</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.07954732367260713</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.07019224876564427</v>
+        <v>0.0705850895008367</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.08983503456877755</v>
+        <v>0.08962843306246741</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>199</v>
@@ -8570,19 +8570,19 @@
         <v>214452</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>188762</v>
+        <v>185520</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>243328</v>
+        <v>247304</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.0604934853180679</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.05324677069956507</v>
+        <v>0.05233244146619519</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.06863900927981451</v>
+        <v>0.06976056748508154</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>456</v>
@@ -8591,19 +8591,19 @@
         <v>485758</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>440458</v>
+        <v>446014</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>531261</v>
+        <v>533809</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.06983630444670243</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.06332361305010842</v>
+        <v>0.0641224662118039</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.07637823209502516</v>
+        <v>0.07674455616655802</v>
       </c>
     </row>
     <row r="57">
@@ -8939,19 +8939,19 @@
         <v>5737</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2505</v>
+        <v>2453</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11687</v>
+        <v>12316</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01990818536192485</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008692549907107714</v>
+        <v>0.008510972761364605</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04055190477495304</v>
+        <v>0.04273524879801985</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -8960,19 +8960,19 @@
         <v>10558</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5100</v>
+        <v>5452</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20066</v>
+        <v>18756</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03668743202208721</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01772331737863069</v>
+        <v>0.01894604998437603</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06972766479879955</v>
+        <v>0.06517548869339441</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -8981,19 +8981,19 @@
         <v>16295</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9779</v>
+        <v>8970</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25742</v>
+        <v>25398</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02829174658335183</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01697831168154459</v>
+        <v>0.01557292110023713</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04469228884056928</v>
+        <v>0.04409536614442297</v>
       </c>
     </row>
     <row r="5">
@@ -9010,19 +9010,19 @@
         <v>4492</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>882</v>
+        <v>1559</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11310</v>
+        <v>11742</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01558825169152784</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003060444235716427</v>
+        <v>0.005410327539039665</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03924251724447266</v>
+        <v>0.04074396431390511</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -9031,19 +9031,19 @@
         <v>14846</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8515</v>
+        <v>8341</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25051</v>
+        <v>23360</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05158815951888369</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0295901589149593</v>
+        <v>0.0289854845141385</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08704897672188171</v>
+        <v>0.08117173013921991</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -9052,19 +9052,19 @@
         <v>19339</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11952</v>
+        <v>11377</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29869</v>
+        <v>29039</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03357519933876182</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02075036109504746</v>
+        <v>0.01975331965648345</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05185821968187497</v>
+        <v>0.05041631773243792</v>
       </c>
     </row>
     <row r="6">
@@ -9081,19 +9081,19 @@
         <v>111926</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>94964</v>
+        <v>95433</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>129517</v>
+        <v>130137</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3883672277870325</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3295108447574299</v>
+        <v>0.331137893501079</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4494049518534146</v>
+        <v>0.4515558261811732</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>114</v>
@@ -9102,19 +9102,19 @@
         <v>121116</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>105739</v>
+        <v>103074</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>138961</v>
+        <v>138631</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4208625861309483</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.367427672240039</v>
+        <v>0.3581675200361059</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4828702088599995</v>
+        <v>0.4817229736710723</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>216</v>
@@ -9123,19 +9123,19 @@
         <v>233043</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>209659</v>
+        <v>209716</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>259013</v>
+        <v>258347</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4046031668375756</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.364005902402861</v>
+        <v>0.3641036337450272</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4496931004251701</v>
+        <v>0.4485356036315967</v>
       </c>
     </row>
     <row r="7">
@@ -9152,19 +9152,19 @@
         <v>133326</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>116015</v>
+        <v>114198</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>151529</v>
+        <v>150784</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4626224158311769</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4025560661584481</v>
+        <v>0.3962487641031375</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5257826262630207</v>
+        <v>0.5231962836553669</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>110</v>
@@ -9173,19 +9173,19 @@
         <v>110003</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>92692</v>
+        <v>94607</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>126366</v>
+        <v>126073</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3822442019741891</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3220904097370412</v>
+        <v>0.3287460353312313</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4391036921434157</v>
+        <v>0.4380866258326234</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>232</v>
@@ -9194,19 +9194,19 @@
         <v>243329</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>217944</v>
+        <v>219920</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>267832</v>
+        <v>267059</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4224623484344153</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3783901652338955</v>
+        <v>0.3818206174539299</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4650037983075609</v>
+        <v>0.4636617198391763</v>
       </c>
     </row>
     <row r="8">
@@ -9223,19 +9223,19 @@
         <v>32714</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>22080</v>
+        <v>22293</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45104</v>
+        <v>46078</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.113513919328338</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07661482020234969</v>
+        <v>0.07735426134874461</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1565027613604983</v>
+        <v>0.1598825542071229</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -9244,19 +9244,19 @@
         <v>31258</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>21047</v>
+        <v>21877</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>43391</v>
+        <v>43988</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1086176203538917</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07313518275847855</v>
+        <v>0.076018592935731</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1507762078877407</v>
+        <v>0.1528528228559163</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>56</v>
@@ -9265,19 +9265,19 @@
         <v>63972</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>48512</v>
+        <v>49762</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>82570</v>
+        <v>81748</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1110675388058954</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08422458813524063</v>
+        <v>0.08639580743153148</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1433560721926603</v>
+        <v>0.1419291757632928</v>
       </c>
     </row>
     <row r="9">
@@ -9372,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4719</v>
+        <v>4940</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001855917774312128</v>
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009429182470305495</v>
+        <v>0.00987226527124368</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7164</v>
+        <v>8114</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004440967679900503</v>
@@ -9402,7 +9402,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01374634078258065</v>
+        <v>0.01556901081083926</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -9411,19 +9411,19 @@
         <v>3243</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8962</v>
+        <v>9545</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003174668677803071</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.000909861956419392</v>
+        <v>0.0009132521218176722</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008772845485164606</v>
+        <v>0.0093439393632406</v>
       </c>
     </row>
     <row r="11">
@@ -9440,19 +9440,19 @@
         <v>29176</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20309</v>
+        <v>20081</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>43130</v>
+        <v>41355</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05830329872975738</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04058368380940174</v>
+        <v>0.04012783786369799</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08618768976244159</v>
+        <v>0.08264108815827403</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>38</v>
@@ -9461,19 +9461,19 @@
         <v>41052</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>29569</v>
+        <v>29213</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>56813</v>
+        <v>53631</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07877178377211273</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05673848893474379</v>
+        <v>0.05605527652880957</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1090143896318716</v>
+        <v>0.1029096578664185</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>67</v>
@@ -9482,19 +9482,19 @@
         <v>70228</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>55583</v>
+        <v>55352</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>92528</v>
+        <v>87549</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06874519893614943</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05440927418500867</v>
+        <v>0.05418304198150575</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09057475100254846</v>
+        <v>0.08570014612476304</v>
       </c>
     </row>
     <row r="12">
@@ -9511,19 +9511,19 @@
         <v>96230</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>79598</v>
+        <v>80170</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>114065</v>
+        <v>114883</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1922989228594345</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1590619968036878</v>
+        <v>0.1602053484594095</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2279378700271402</v>
+        <v>0.2295733985446704</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>119</v>
@@ -9532,19 +9532,19 @@
         <v>126963</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>108050</v>
+        <v>108804</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>148719</v>
+        <v>147631</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2436222930040963</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2073309087546705</v>
+        <v>0.2087776629616181</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2853687467814903</v>
+        <v>0.2832809377503251</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>213</v>
@@ -9553,19 +9553,19 @@
         <v>223194</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>195680</v>
+        <v>198034</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>251160</v>
+        <v>248661</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2184812958194907</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1915484509998479</v>
+        <v>0.1938534475905419</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2458571901291801</v>
+        <v>0.2434109581678764</v>
       </c>
     </row>
     <row r="13">
@@ -9582,19 +9582,19 @@
         <v>246791</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>222398</v>
+        <v>224625</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>268238</v>
+        <v>269278</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4931681153260623</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4444236517017882</v>
+        <v>0.4488721973075732</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5360249359813359</v>
+        <v>0.5381037067290612</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>212</v>
@@ -9603,19 +9603,19 @@
         <v>227259</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>203717</v>
+        <v>202603</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>250598</v>
+        <v>249796</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4360730756118866</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3909006886178813</v>
+        <v>0.3887637554363454</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4808566963147181</v>
+        <v>0.4793185996642762</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>443</v>
@@ -9624,19 +9624,19 @@
         <v>474050</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>442555</v>
+        <v>443385</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>508063</v>
+        <v>509071</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.464041352610515</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4332110460939943</v>
+        <v>0.4340240256475793</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4973359928395348</v>
+        <v>0.4983229094736465</v>
       </c>
     </row>
     <row r="14">
@@ -9653,19 +9653,19 @@
         <v>127294</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>108256</v>
+        <v>108506</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>146119</v>
+        <v>147041</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2543737453104337</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2163299406782377</v>
+        <v>0.2168307179736473</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2919925829171705</v>
+        <v>0.2938348481417899</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>111</v>
@@ -9674,19 +9674,19 @@
         <v>123560</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>104198</v>
+        <v>104131</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>144007</v>
+        <v>145081</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2370918799320039</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.19993972886154</v>
+        <v>0.199810799575384</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2763270679870138</v>
+        <v>0.2783874420883675</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>229</v>
@@ -9695,19 +9695,19 @@
         <v>250854</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>224671</v>
+        <v>222125</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>279210</v>
+        <v>280813</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2455574839560418</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2199280846048042</v>
+        <v>0.2174356855955802</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.273314754786737</v>
+        <v>0.2748841216524841</v>
       </c>
     </row>
     <row r="15">
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3505</v>
+        <v>5757</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002738993568504508</v>
@@ -9811,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01109610016297125</v>
+        <v>0.01822821705229384</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -9823,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6166</v>
+        <v>5814</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005520266910628777</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01847997422727022</v>
+        <v>0.01742683008476491</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -9841,19 +9841,19 @@
         <v>2707</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7314</v>
+        <v>7293</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004167707093598297</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001305216992269668</v>
+        <v>0.001296356388993908</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01126126275420464</v>
+        <v>0.01122860886326191</v>
       </c>
     </row>
     <row r="17">
@@ -9870,19 +9870,19 @@
         <v>3975</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>944</v>
+        <v>921</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10751</v>
+        <v>8668</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01258380288050502</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002988735837226338</v>
+        <v>0.002916185587786402</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03403657832044633</v>
+        <v>0.02744151594631836</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -9891,19 +9891,19 @@
         <v>9265</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4389</v>
+        <v>4529</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16337</v>
+        <v>16843</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02777050773188973</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01315510863416374</v>
+        <v>0.01357451989041855</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0489659641968539</v>
+        <v>0.05048202416789633</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -9912,19 +9912,19 @@
         <v>13240</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7637</v>
+        <v>7425</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22386</v>
+        <v>21982</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02038506796803101</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01175911320916111</v>
+        <v>0.01143125798374617</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03446656693267488</v>
+        <v>0.03384542299847595</v>
       </c>
     </row>
     <row r="18">
@@ -9941,19 +9941,19 @@
         <v>168826</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>150211</v>
+        <v>150832</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>185079</v>
+        <v>184277</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5345020318299539</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.475569229678368</v>
+        <v>0.4775339100599554</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5859613168665919</v>
+        <v>0.5834219813910485</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>211</v>
@@ -9962,19 +9962,19 @@
         <v>213237</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>196128</v>
+        <v>194983</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>230588</v>
+        <v>230117</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6391242044111916</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5878417679362126</v>
+        <v>0.5844123812940699</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6911285837001928</v>
+        <v>0.6897175051138779</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>387</v>
@@ -9983,19 +9983,19 @@
         <v>382063</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>358218</v>
+        <v>355889</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>403719</v>
+        <v>404988</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5882454416299219</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5515322661021214</v>
+        <v>0.5479461418390199</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6215887648228219</v>
+        <v>0.6235414661558707</v>
       </c>
     </row>
     <row r="19">
@@ -10012,19 +10012,19 @@
         <v>136519</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>121345</v>
+        <v>120691</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>155011</v>
+        <v>154418</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4322204412818613</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3841774732014639</v>
+        <v>0.3821079288003389</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4907638209486402</v>
+        <v>0.4888873610878165</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>107</v>
@@ -10033,19 +10033,19 @@
         <v>109295</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>92792</v>
+        <v>92656</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>126257</v>
+        <v>127127</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3275850209462899</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.278119204812894</v>
+        <v>0.2777112146318305</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3784232727055632</v>
+        <v>0.3810301033117109</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>252</v>
@@ -10054,19 +10054,19 @@
         <v>245815</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>223094</v>
+        <v>223553</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>268798</v>
+        <v>271566</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3784702262371492</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3434886091573205</v>
+        <v>0.3441944386224345</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4138556510080992</v>
+        <v>0.418118417164452</v>
       </c>
     </row>
     <row r="20">
@@ -10083,19 +10083,19 @@
         <v>5671</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1964</v>
+        <v>1952</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12269</v>
+        <v>12120</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01795473043917521</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006216807677910031</v>
+        <v>0.006179015246948281</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03884293736779371</v>
+        <v>0.03837069672925944</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -10117,19 +10117,19 @@
         <v>5671</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1963</v>
+        <v>1906</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12367</v>
+        <v>11903</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.008731557071299658</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003022577603397626</v>
+        <v>0.00293475590630129</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01904160434444039</v>
+        <v>0.01832607157553482</v>
       </c>
     </row>
     <row r="21">
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9323</v>
+        <v>10383</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006996908480016947</v>
@@ -10233,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02519952209637198</v>
+        <v>0.02806587802979506</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -10242,19 +10242,19 @@
         <v>5345</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12237</v>
+        <v>12027</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01380046411653644</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005369712872805481</v>
+        <v>0.005369091512680385</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03159716413325402</v>
+        <v>0.03105373800779796</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -10263,19 +10263,19 @@
         <v>7933</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3346</v>
+        <v>3542</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15587</v>
+        <v>15510</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0104764883881932</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004418967065499118</v>
+        <v>0.004677946139285512</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02058329281840192</v>
+        <v>0.0204823953384964</v>
       </c>
     </row>
     <row r="23">
@@ -10292,19 +10292,19 @@
         <v>3686</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9294</v>
+        <v>8940</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.009962457789509237</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.002782745867312648</v>
+        <v>0.002743887404051133</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02512089724839046</v>
+        <v>0.02416428384679124</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -10313,19 +10313,19 @@
         <v>13940</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8260</v>
+        <v>7773</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>24582</v>
+        <v>24234</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03599358500076383</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02132919762826634</v>
+        <v>0.02007036275229772</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0634739129663399</v>
+        <v>0.06257489713679701</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>16</v>
@@ -10334,19 +10334,19 @@
         <v>17625</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9872</v>
+        <v>10978</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>28824</v>
+        <v>29998</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02327570046298263</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01303724161034288</v>
+        <v>0.01449700760606078</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03806395705367754</v>
+        <v>0.03961508714680233</v>
       </c>
     </row>
     <row r="24">
@@ -10363,19 +10363,19 @@
         <v>156839</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>135536</v>
+        <v>138665</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>176211</v>
+        <v>176421</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4239315185269489</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3663494795194954</v>
+        <v>0.3748063181597979</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4762922690594174</v>
+        <v>0.4768609649756246</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>161</v>
@@ -10384,19 +10384,19 @@
         <v>174610</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>155889</v>
+        <v>155924</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>197041</v>
+        <v>194935</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4508593249740408</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4025189877089722</v>
+        <v>0.4026103275332107</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5087772714781545</v>
+        <v>0.503340425489807</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>309</v>
@@ -10405,19 +10405,19 @@
         <v>331450</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>301687</v>
+        <v>303166</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>358695</v>
+        <v>359391</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4377033547976218</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.398399528763167</v>
+        <v>0.400352404765741</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.473683321690209</v>
+        <v>0.4746021915774946</v>
       </c>
     </row>
     <row r="25">
@@ -10434,19 +10434,19 @@
         <v>181407</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>161761</v>
+        <v>161098</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>201308</v>
+        <v>201509</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4903356695600576</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4372352867745777</v>
+        <v>0.435441065194896</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5441289155023776</v>
+        <v>0.5446706795501385</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>162</v>
@@ -10455,19 +10455,19 @@
         <v>174139</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>154036</v>
+        <v>153823</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>194720</v>
+        <v>193568</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.449641722446949</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3977341252302793</v>
+        <v>0.3971843634557731</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5027843230135767</v>
+        <v>0.499809153196061</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>338</v>
@@ -10476,19 +10476,19 @@
         <v>355545</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>326478</v>
+        <v>327215</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>385307</v>
+        <v>381785</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.469523340195232</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4311384642791103</v>
+        <v>0.4321113852225475</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5088263180249787</v>
+        <v>0.5041753143650172</v>
       </c>
     </row>
     <row r="26">
@@ -10505,19 +10505,19 @@
         <v>25444</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>17472</v>
+        <v>16579</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>37954</v>
+        <v>35863</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06877344564346728</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04722756114513364</v>
+        <v>0.04481330015533954</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1025896557244355</v>
+        <v>0.09693770679926023</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -10526,19 +10526,19 @@
         <v>19250</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11777</v>
+        <v>12032</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>29301</v>
+        <v>29646</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04970490346170991</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03040819072730313</v>
+        <v>0.03106756546797542</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07565746394308998</v>
+        <v>0.076548465523558</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>42</v>
@@ -10547,19 +10547,19 @@
         <v>44694</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>33077</v>
+        <v>32634</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>59178</v>
+        <v>58497</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05902111615597044</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04368103245474767</v>
+        <v>0.04309494867025753</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07814859987992125</v>
+        <v>0.07724890931985919</v>
       </c>
     </row>
     <row r="27">
@@ -10654,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6201</v>
+        <v>5858</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.008313641605931808</v>
@@ -10663,7 +10663,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02935792099244684</v>
+        <v>0.02773558664420961</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -10675,7 +10675,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7339</v>
+        <v>7923</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.006759897060989719</v>
@@ -10684,7 +10684,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03372362174441797</v>
+        <v>0.03640556039047424</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -10693,19 +10693,19 @@
         <v>3227</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>798</v>
+        <v>809</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>9241</v>
+        <v>8977</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.007525164074271347</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001860270151179894</v>
+        <v>0.001886042341258808</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02154953639298283</v>
+        <v>0.02093377705868189</v>
       </c>
     </row>
     <row r="29">
@@ -10725,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5745</v>
+        <v>6600</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.008977733444383273</v>
@@ -10734,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02719768798007518</v>
+        <v>0.03124804143077088</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -10746,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4783</v>
+        <v>4854</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.004409727459205911</v>
@@ -10755,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02197871559367858</v>
+        <v>0.02230215221659138</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -10764,19 +10764,19 @@
         <v>2856</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8528</v>
+        <v>7616</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.006659611012013218</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002191463896023454</v>
+        <v>0.00217889041809348</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01988550484955292</v>
+        <v>0.01775911355472058</v>
       </c>
     </row>
     <row r="30">
@@ -10793,19 +10793,19 @@
         <v>20791</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13270</v>
+        <v>13410</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>30320</v>
+        <v>30114</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09843030269298807</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06282283001641206</v>
+        <v>0.06348613126417978</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1435450522498568</v>
+        <v>0.1425723956675764</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>16</v>
@@ -10814,19 +10814,19 @@
         <v>16256</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9009</v>
+        <v>9866</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>25178</v>
+        <v>25401</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07469696671379714</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04139730237460679</v>
+        <v>0.04533277620089941</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1156926054689326</v>
+        <v>0.1167199861354426</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>37</v>
@@ -10835,19 +10835,19 @@
         <v>37047</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>27429</v>
+        <v>27021</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>50628</v>
+        <v>49437</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08638636520541455</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06396037800274676</v>
+        <v>0.06300772006411363</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1180565907047647</v>
+        <v>0.1152774668233744</v>
       </c>
     </row>
     <row r="31">
@@ -10864,19 +10864,19 @@
         <v>96593</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>82236</v>
+        <v>82147</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>111256</v>
+        <v>110530</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4573077805014599</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3893369855945723</v>
+        <v>0.3889167070466045</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.526726618876226</v>
+        <v>0.5232889713007017</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>103</v>
@@ -10885,19 +10885,19 @@
         <v>98473</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>84083</v>
+        <v>84576</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>112296</v>
+        <v>114197</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4524831540202973</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3863622727542495</v>
+        <v>0.3886294570298994</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.516001975988263</v>
+        <v>0.52473738967426</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>199</v>
@@ -10906,19 +10906,19 @@
         <v>195066</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>174537</v>
+        <v>178081</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>214164</v>
+        <v>217056</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.454859431066262</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4069911908320089</v>
+        <v>0.4152546138113206</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4993930347994272</v>
+        <v>0.5061379285672225</v>
       </c>
     </row>
     <row r="32">
@@ -10935,19 +10935,19 @@
         <v>90185</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>77152</v>
+        <v>76035</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>105137</v>
+        <v>103679</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4269705417552369</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3652650801145541</v>
+        <v>0.3599779189119543</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4977566565992591</v>
+        <v>0.4908550361647764</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>101</v>
@@ -10956,19 +10956,19 @@
         <v>100468</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>87761</v>
+        <v>85768</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>114909</v>
+        <v>115634</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.46165025474571</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4032649255082592</v>
+        <v>0.394106878530092</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5280095460559608</v>
+        <v>0.5313404416910255</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>192</v>
@@ -10977,19 +10977,19 @@
         <v>190653</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>170724</v>
+        <v>170209</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>211567</v>
+        <v>210333</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4445694286420389</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3980981885090601</v>
+        <v>0.3968987598466298</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4933372445806056</v>
+        <v>0.4904605968469288</v>
       </c>
     </row>
     <row r="33">
@@ -11081,19 +11081,19 @@
         <v>4024</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>927</v>
+        <v>1526</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>9376</v>
+        <v>10532</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0153488264942523</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.003537407101953776</v>
+        <v>0.005822344967816858</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03576640707115024</v>
+        <v>0.04017858857218912</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>8</v>
@@ -11102,19 +11102,19 @@
         <v>8902</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4223</v>
+        <v>4337</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>17091</v>
+        <v>16770</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0325938289817137</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01546351055903689</v>
+        <v>0.01587795893901305</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06257904571288389</v>
+        <v>0.06140343037032178</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>12</v>
@@ -11123,19 +11123,19 @@
         <v>12925</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>7076</v>
+        <v>6758</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>22368</v>
+        <v>21962</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02414813378036496</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01321958453905994</v>
+        <v>0.01262569881118566</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04178981789197189</v>
+        <v>0.04103159876936952</v>
       </c>
     </row>
     <row r="35">
@@ -11152,19 +11152,19 @@
         <v>9039</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4505</v>
+        <v>4554</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>17112</v>
+        <v>17102</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03448340845413456</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01718460959397688</v>
+        <v>0.01737178719372797</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06527848372404704</v>
+        <v>0.06524062480260798</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>18</v>
@@ -11173,19 +11173,19 @@
         <v>19728</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>12436</v>
+        <v>12036</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>30773</v>
+        <v>30349</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07223269968879134</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04553542736523167</v>
+        <v>0.04406882675499411</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1126750005092397</v>
+        <v>0.1111209899990905</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>27</v>
@@ -11194,19 +11194,19 @@
         <v>28767</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>19193</v>
+        <v>18712</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>42455</v>
+        <v>41080</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05374508230128064</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03585715922179224</v>
+        <v>0.03495963939658565</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07931645879837732</v>
+        <v>0.07674823184261111</v>
       </c>
     </row>
     <row r="36">
@@ -11223,19 +11223,19 @@
         <v>130237</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>113483</v>
+        <v>115239</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>145738</v>
+        <v>147518</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4968233603194988</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4329088888693393</v>
+        <v>0.4396096071323862</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5559542883374762</v>
+        <v>0.5627459189615274</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>158</v>
@@ -11244,19 +11244,19 @@
         <v>163832</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>149019</v>
+        <v>145220</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>181762</v>
+        <v>180539</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.599863790421717</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5456260997762988</v>
+        <v>0.5317182128150977</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6655143892497105</v>
+        <v>0.661036219400155</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>287</v>
@@ -11265,19 +11265,19 @@
         <v>294069</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>271970</v>
+        <v>269889</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>317825</v>
+        <v>315084</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5494000072652948</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5081137175923564</v>
+        <v>0.5042251910360919</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5937818718573452</v>
+        <v>0.5886624059317264</v>
       </c>
     </row>
     <row r="37">
@@ -11294,19 +11294,19 @@
         <v>115937</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>100909</v>
+        <v>99948</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>132192</v>
+        <v>130949</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.442272705361612</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3849432254070011</v>
+        <v>0.3812788175298274</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5042812481761367</v>
+        <v>0.499539756933987</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>74</v>
@@ -11315,19 +11315,19 @@
         <v>75437</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>60837</v>
+        <v>60881</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>91378</v>
+        <v>90928</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2762088145965599</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2227529633459685</v>
+        <v>0.2229137614888264</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3345787212026904</v>
+        <v>0.3329300407270043</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>187</v>
@@ -11336,19 +11336,19 @@
         <v>191374</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>169056</v>
+        <v>170701</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>215098</v>
+        <v>213324</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.357538174007871</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3158423420819119</v>
+        <v>0.3189145084623893</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4018608853932851</v>
+        <v>0.3985470062408915</v>
       </c>
     </row>
     <row r="38">
@@ -11365,19 +11365,19 @@
         <v>2902</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>7909</v>
+        <v>7819</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01107169937050229</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.003611403338873006</v>
+        <v>0.003570518009138871</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03017190261991572</v>
+        <v>0.02982635040573835</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>5</v>
@@ -11389,16 +11389,16 @@
         <v>2009</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>12045</v>
+        <v>12130</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01910086631121804</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.007355744446138714</v>
+        <v>0.007355413018992361</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.04410107630128356</v>
+        <v>0.04441264210152981</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>8</v>
@@ -11407,19 +11407,19 @@
         <v>8119</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3978</v>
+        <v>3853</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>15939</v>
+        <v>14575</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01516860264518865</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.007432072472169505</v>
+        <v>0.00719782263625615</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.0297790560725879</v>
+        <v>0.02722944659413678</v>
       </c>
     </row>
     <row r="39">
@@ -11511,19 +11511,19 @@
         <v>4433</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1092</v>
+        <v>1503</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>11018</v>
+        <v>11230</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.00677166070266821</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001667520091660706</v>
+        <v>0.002296448670999088</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01683160215837542</v>
+        <v>0.01715510962382825</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>6</v>
@@ -11532,19 +11532,19 @@
         <v>6979</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2821</v>
+        <v>2772</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>15895</v>
+        <v>14912</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01012733218899337</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.004092843162994493</v>
+        <v>0.00402285370588958</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02306503803922922</v>
+        <v>0.02163807439839413</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>10</v>
@@ -11553,19 +11553,19 @@
         <v>11412</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>5325</v>
+        <v>5827</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>19942</v>
+        <v>20312</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.008492600836329427</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.003963099279580725</v>
+        <v>0.004336445384319753</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0148408506100904</v>
+        <v>0.01511595519421233</v>
       </c>
     </row>
     <row r="41">
@@ -11582,19 +11582,19 @@
         <v>34935</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>24905</v>
+        <v>25043</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>49809</v>
+        <v>47975</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.05336794330833231</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03804511665217276</v>
+        <v>0.03825628672606927</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07608954173093124</v>
+        <v>0.07328740158812208</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>36</v>
@@ -11603,19 +11603,19 @@
         <v>37438</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>26203</v>
+        <v>27086</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>49991</v>
+        <v>49813</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05432637585024511</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03802337083785321</v>
+        <v>0.03930468013239467</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.07254166513142714</v>
+        <v>0.07228405181023677</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>66</v>
@@ -11624,19 +11624,19 @@
         <v>72373</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>58647</v>
+        <v>57694</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>92140</v>
+        <v>90632</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.05385947087099935</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.04364450425047799</v>
+        <v>0.04293512419458605</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.06856954223220825</v>
+        <v>0.0674470345958329</v>
       </c>
     </row>
     <row r="42">
@@ -11653,19 +11653,19 @@
         <v>225186</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>198591</v>
+        <v>201193</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>251280</v>
+        <v>253357</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3439984508491392</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3033719260198139</v>
+        <v>0.3073473832148024</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3838605937687081</v>
+        <v>0.387033609354812</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>247</v>
@@ -11674,19 +11674,19 @@
         <v>269939</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>244718</v>
+        <v>245964</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>295317</v>
+        <v>298165</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3917078374906505</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3551101683346821</v>
+        <v>0.3569175806018284</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.428533355516787</v>
+        <v>0.4326655117684708</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>444</v>
@@ -11695,19 +11695,19 @@
         <v>495125</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>459638</v>
+        <v>457242</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>532029</v>
+        <v>531888</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3684659824768109</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3420573525704418</v>
+        <v>0.3402738666448064</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3959298568245511</v>
+        <v>0.3958247984847437</v>
       </c>
     </row>
     <row r="43">
@@ -11724,19 +11724,19 @@
         <v>308393</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>278713</v>
+        <v>280101</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>336802</v>
+        <v>334141</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.4711081910964824</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.4257676036613995</v>
+        <v>0.4278888909991622</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.5145069325729404</v>
+        <v>0.5104420129737032</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>263</v>
@@ -11745,19 +11745,19 @@
         <v>280966</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>255104</v>
+        <v>254658</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>307437</v>
+        <v>309728</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.407708563622283</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.3701801040957725</v>
+        <v>0.3695329157198566</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4461200655546245</v>
+        <v>0.4494447535462047</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>537</v>
@@ -11766,19 +11766,19 @@
         <v>589359</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>553960</v>
+        <v>553686</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>629110</v>
+        <v>626601</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.438593994213937</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.4122506628546169</v>
+        <v>0.4120466678869283</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.4681763456741772</v>
+        <v>0.4663093904601262</v>
       </c>
     </row>
     <row r="44">
@@ -11795,19 +11795,19 @@
         <v>81665</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>66577</v>
+        <v>64805</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>102653</v>
+        <v>100900</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1247537540433779</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1017044994531512</v>
+        <v>0.09899723015984785</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1568143970148815</v>
+        <v>0.1541369214034697</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>92</v>
@@ -11816,19 +11816,19 @@
         <v>93812</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>75899</v>
+        <v>74823</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>113695</v>
+        <v>110536</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1361298908478281</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1101373897095248</v>
+        <v>0.1085758728553762</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1649818500623959</v>
+        <v>0.160398636868936</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>165</v>
@@ -11837,19 +11837,19 @@
         <v>175477</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>151161</v>
+        <v>149062</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>202468</v>
+        <v>200433</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1305879516019233</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1124920201113891</v>
+        <v>0.1109298534489701</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1506744985361012</v>
+        <v>0.1491599911292878</v>
       </c>
     </row>
     <row r="45">
@@ -11944,7 +11944,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>5288</v>
+        <v>5417</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.001367660151687086</v>
@@ -11953,7 +11953,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.006825427870881454</v>
+        <v>0.006991948578502876</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>4</v>
@@ -11962,19 +11962,19 @@
         <v>4143</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1068</v>
+        <v>984</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>10020</v>
+        <v>10676</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.005022169824158336</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.001294555993919913</v>
+        <v>0.001192342330494313</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01214565276816762</v>
+        <v>0.01294103786503926</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>5</v>
@@ -11983,19 +11983,19 @@
         <v>5203</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1945</v>
+        <v>1932</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>11232</v>
+        <v>11082</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.003252289299344667</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.001215493857986392</v>
+        <v>0.0012079000088066</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.007021174042988236</v>
+        <v>0.006927149862056134</v>
       </c>
     </row>
     <row r="47">
@@ -12012,19 +12012,19 @@
         <v>13126</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>7097</v>
+        <v>6987</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>24257</v>
+        <v>22994</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01694196978177274</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.009159561093573214</v>
+        <v>0.009017787578945786</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.03130881449067256</v>
+        <v>0.02967856554770594</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>10</v>
@@ -12033,19 +12033,19 @@
         <v>10720</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>5195</v>
+        <v>5315</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>19524</v>
+        <v>18224</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.01299432187933867</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.006296804161910118</v>
+        <v>0.00644274796972011</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.02366564360094601</v>
+        <v>0.02208966859276693</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>22</v>
@@ -12054,19 +12054,19 @@
         <v>23847</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>14844</v>
+        <v>15407</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>35443</v>
+        <v>35126</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.01490616936847527</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.009279062070967551</v>
+        <v>0.009630872373914145</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.02215479398149611</v>
+        <v>0.02195715425448401</v>
       </c>
     </row>
     <row r="48">
@@ -12083,19 +12083,19 @@
         <v>251180</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>224533</v>
+        <v>224967</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>280006</v>
+        <v>277579</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3241992492070532</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2898055621770722</v>
+        <v>0.2903661894725843</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3614046863712977</v>
+        <v>0.3582727492048151</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>297</v>
@@ -12104,19 +12104,19 @@
         <v>323891</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>297256</v>
+        <v>289925</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>353894</v>
+        <v>351487</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.392594048392121</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3603087543670875</v>
+        <v>0.3514233471747475</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.428961040134718</v>
+        <v>0.4260433580046623</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>541</v>
@@ -12125,19 +12125,19 @@
         <v>575071</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>538052</v>
+        <v>536173</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>612752</v>
+        <v>614415</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3594704192530205</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.336330279001306</v>
+        <v>0.335155739636397</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3830239192912219</v>
+        <v>0.3840634759706589</v>
       </c>
     </row>
     <row r="49">
@@ -12154,19 +12154,19 @@
         <v>382620</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>354605</v>
+        <v>353434</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>412572</v>
+        <v>411557</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.4938497369063202</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.4576894518083225</v>
+        <v>0.4561780912669383</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.5325079310175905</v>
+        <v>0.5311979962530203</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>326</v>
@@ -12175,19 +12175,19 @@
         <v>361270</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>329640</v>
+        <v>332303</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>389141</v>
+        <v>389883</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.4379008391277709</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3995626399533883</v>
+        <v>0.4027894695416068</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4716839832584303</v>
+        <v>0.472583321434732</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>692</v>
@@ -12196,19 +12196,19 @@
         <v>743890</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>700018</v>
+        <v>701825</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>778941</v>
+        <v>780929</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.4649969131398241</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.4375728823895235</v>
+        <v>0.4387022810654301</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4869068814813745</v>
+        <v>0.4881494171315069</v>
       </c>
     </row>
     <row r="50">
@@ -12225,19 +12225,19 @@
         <v>126785</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>107934</v>
+        <v>106250</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>148564</v>
+        <v>148616</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1636413839531668</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1393108553399539</v>
+        <v>0.1371376960332927</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1917516290380654</v>
+        <v>0.1918187375175813</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>117</v>
@@ -12246,19 +12246,19 @@
         <v>124979</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>106670</v>
+        <v>104371</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>146767</v>
+        <v>149235</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.151488620776611</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1292965410041026</v>
+        <v>0.1265102162949047</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1778985360065493</v>
+        <v>0.1808896602162162</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>240</v>
@@ -12267,19 +12267,19 @@
         <v>251763</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>224402</v>
+        <v>224978</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>280240</v>
+        <v>282056</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1573742089393355</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1402708862515668</v>
+        <v>0.140631159829649</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1751747726499835</v>
+        <v>0.1763100640215932</v>
       </c>
     </row>
     <row r="51">
@@ -12371,19 +12371,19 @@
         <v>21392</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>13286</v>
+        <v>14316</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>32498</v>
+        <v>32392</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.006334257698558472</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.003934107799195028</v>
+        <v>0.004239167829679036</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.009622823948540315</v>
+        <v>0.009591302660390624</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>38</v>
@@ -12392,19 +12392,19 @@
         <v>41554</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>29867</v>
+        <v>30233</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>57451</v>
+        <v>56687</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.0117559733442244</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.00844953547708713</v>
+        <v>0.008553109539440031</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.01625343314540906</v>
+        <v>0.01603707002577574</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>59</v>
@@ -12413,19 +12413,19 @@
         <v>62946</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>47453</v>
+        <v>47669</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>79495</v>
+        <v>81147</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.009106906606844505</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.006865395372653432</v>
+        <v>0.006896648696288974</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01150122510867374</v>
+        <v>0.01174011080415914</v>
       </c>
     </row>
     <row r="53">
@@ -12442,19 +12442,19 @@
         <v>100326</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>81097</v>
+        <v>80484</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>123529</v>
+        <v>122441</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.02970709881635113</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.0240131832707347</v>
+        <v>0.02383156427145735</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.03657744937260387</v>
+        <v>0.03625542248493949</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>138</v>
@@ -12463,19 +12463,19 @@
         <v>147949</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>124880</v>
+        <v>124635</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>175019</v>
+        <v>173888</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.04185577613926333</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.03532943063874033</v>
+        <v>0.03526023214952152</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.04951401389461873</v>
+        <v>0.04919419695078719</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>232</v>
@@ -12484,19 +12484,19 @@
         <v>248275</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>219633</v>
+        <v>216737</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>282887</v>
+        <v>280876</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.03591989548771815</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.03177606648150222</v>
+        <v>0.03135704036564819</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.04092749711030215</v>
+        <v>0.04063645771772135</v>
       </c>
     </row>
     <row r="54">
@@ -12513,19 +12513,19 @@
         <v>1161215</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1109626</v>
+        <v>1105220</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1220352</v>
+        <v>1213248</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.3438415277822058</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.3285656020384582</v>
+        <v>0.3272611466996084</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.361352182361744</v>
+        <v>0.3592487227422838</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1323</v>
@@ -12534,19 +12534,19 @@
         <v>1409845</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1351643</v>
+        <v>1344389</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1470362</v>
+        <v>1467516</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.3988550518036523</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.3823894521578072</v>
+        <v>0.3803371465797915</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.4159757540765412</v>
+        <v>0.4151705986205795</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>2434</v>
@@ -12555,19 +12555,19 @@
         <v>2571060</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>2493975</v>
+        <v>2491033</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>2652714</v>
+        <v>2654343</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.3719752768180787</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.3608228375068017</v>
+        <v>0.3603971099402375</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3837888021276543</v>
+        <v>0.3840244134061627</v>
       </c>
     </row>
     <row r="55">
@@ -12584,19 +12584,19 @@
         <v>1601587</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1542247</v>
+        <v>1545671</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>1658950</v>
+        <v>1658611</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.4742379678829145</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.4566670109993096</v>
+        <v>0.4576809241503059</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.4912234242475397</v>
+        <v>0.4911228993521639</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1357</v>
@@ -12605,19 +12605,19 @@
         <v>1436840</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>1375781</v>
+        <v>1373292</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>1492963</v>
+        <v>1498267</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.4064920252099782</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.3892180131356412</v>
+        <v>0.3885138955681892</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.4223697203066282</v>
+        <v>0.4238702281073594</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>2880</v>
@@ -12626,19 +12626,19 @@
         <v>3038427</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>2953907</v>
+        <v>2944230</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>3131490</v>
+        <v>3118306</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.4395928986338329</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.4273647824206672</v>
+        <v>0.4259646257747768</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.453057116189999</v>
+        <v>0.4511495721258596</v>
       </c>
     </row>
     <row r="56">
@@ -12655,19 +12655,19 @@
         <v>492660</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>454611</v>
+        <v>452588</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>537933</v>
+        <v>534063</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1458791478199702</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1346125434838034</v>
+        <v>0.1340136538305673</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1592846946528239</v>
+        <v>0.1581388091574563</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>472</v>
@@ -12676,19 +12676,19 @@
         <v>498542</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>453567</v>
+        <v>457643</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>540468</v>
+        <v>543517</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.1410411735028818</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1283172085754507</v>
+        <v>0.1294702910654719</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.1529022845328318</v>
+        <v>0.1537649038633394</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>938</v>
@@ -12697,19 +12697,19 @@
         <v>991203</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>931668</v>
+        <v>935219</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1050107</v>
+        <v>1051153</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1434050224535257</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1347916647189899</v>
+        <v>0.1353053694527462</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1519271753499585</v>
+        <v>0.1520784755876526</v>
       </c>
     </row>
     <row r="57">
